--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaphet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BackDoor\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7238AE71-4748-4A49-9FFB-A60322233ECE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B2B3B8-C190-4B6E-B93B-61DB7B2F33A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -489,9 +489,6 @@
     <t>式样书里记载的这三个项目的編集方法都是【コード+「:」+コード略称（コード名称）】，长度不一致。</t>
   </si>
   <si>
-    <t>工程code为2位，区分和line区分暂时按table定义书的长度对应。code master表需要兼容其他数据，所以位数设计的比较长。统合版里没有的表暂时可根据dbレイアウト的表定义，没有问题</t>
-  </si>
-  <si>
     <t>書式チェック的msg内容没有记载。</t>
   </si>
   <si>
@@ -547,6 +544,260 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>08.クローズ</t>
+  </si>
+  <si>
+    <r>
+      <t>工程code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2位，区分和line区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>按table定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。code master表需要兼容其他数据，所以位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>较长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合版里没有的表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可根据dbレイアウト的表定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">问题
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10/12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">王
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区分和ライン区分长度都是1位，追加的时候，编辑内容是【コード+「:」+名称】，这两个项目的长度定义不一致，无法按照式样书编辑。</t>
+    </r>
+    <rPh sb="104" eb="105">
+      <t>オウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -558,7 +809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +917,27 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1816,7 +2088,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1878,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>21</v>
@@ -1906,10 +2178,10 @@
         <v>43750</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1933,7 +2205,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>52</v>
@@ -1942,7 +2214,7 @@
         <v>43750</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1963,13 +2235,13 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>52</v>
@@ -1978,7 +2250,7 @@
         <v>43750</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1992,20 +2264,20 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2">
         <v>43750</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>52</v>
@@ -2014,7 +2286,7 @@
         <v>43750</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
@@ -2028,20 +2300,20 @@
         <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>43750</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>52</v>
@@ -2050,7 +2322,7 @@
         <v>43750</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2350,7 +2622,7 @@
   <sheetData>
     <row r="2" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2360,7 +2632,7 @@
     <row r="7" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2369,7 +2641,7 @@
     <row r="12" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BackDoor\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw.cai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B2B3B8-C190-4B6E-B93B-61DB7B2F33A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C740C0-492B-4844-8385-AFFD08B732AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="22" r:id="rId2"/>
     <sheet name="2" sheetId="23" r:id="rId3"/>
-    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId4"/>
-    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="6" sheetId="24" r:id="rId4"/>
+    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId5"/>
+    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -801,6 +801,61 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>蔡</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>式样书中没给出 稼働区分 稼働区分2 稼働区分3 显示的格式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>datagrid在可编辑的状态下是否参照 追加时下拉的内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.显示（" ",1：稼働,2：非稼働）</t>
+  </si>
+  <si>
+    <t>1.是直接取数据库的值显示（" ",1,2）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DataGrid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题，具体参考sheet6</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -809,11 +864,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -827,7 +882,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -863,7 +918,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -892,13 +947,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -913,7 +968,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -938,6 +993,20 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1112,7 +1181,6 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1124,8 +1192,53 @@
     <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{E24371AC-11A1-4280-A77B-D730A1F5D019}"/>
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1770,6 +1883,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313771</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>75901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="942975"/>
+          <a:ext cx="4428571" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361219</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3600450"/>
+          <a:ext cx="5847619" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>113600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4800600"/>
+          <a:ext cx="5600000" cy="1019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2088,10 +2338,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="8" customWidth="1"/>
@@ -2107,7 +2357,7 @@
     <col min="13" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="42.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2181,7 +2431,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="99">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2217,7 +2467,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="42.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2253,7 +2503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="42.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2289,7 +2539,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="28.5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2325,21 +2575,35 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:12" s="1" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43753</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="1" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2353,7 +2617,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="1" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -2367,7 +2631,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="1" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -2381,7 +2645,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="1" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -2395,7 +2659,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -2409,7 +2673,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="1" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -2423,7 +2687,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="1" customFormat="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -2437,7 +2701,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="1" customFormat="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -2451,7 +2715,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="1" customFormat="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -2465,7 +2729,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" s="1" customFormat="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -2479,7 +2743,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" s="1" customFormat="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -2493,7 +2757,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -2507,7 +2771,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="1" customFormat="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -2521,7 +2785,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" s="1" customFormat="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -2535,7 +2799,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="1" customFormat="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -2553,37 +2817,54 @@
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="9" priority="31">
+    <cfRule type="expression" dxfId="14" priority="36">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="32">
+    <cfRule type="expression" dxfId="13" priority="37">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="33">
+    <cfRule type="expression" dxfId="12" priority="38">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="34">
+    <cfRule type="expression" dxfId="11" priority="39">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="35">
+    <cfRule type="expression" dxfId="10" priority="40">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L22">
-    <cfRule type="expression" dxfId="4" priority="21">
+    <cfRule type="expression" dxfId="9" priority="26">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="8" priority="27">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="7" priority="28">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="6" priority="29">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="25">
+    <cfRule type="expression" dxfId="5" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$B7="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$B7="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$C7="02.課題"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2618,36 +2899,36 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" s="15" customFormat="1">
       <c r="B2" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2" s="15" customFormat="1"/>
+    <row r="4" spans="2:2" s="15" customFormat="1"/>
+    <row r="5" spans="2:2" s="15" customFormat="1"/>
+    <row r="6" spans="2:2" s="15" customFormat="1"/>
+    <row r="7" spans="2:2" s="15" customFormat="1"/>
+    <row r="8" spans="2:2" s="15" customFormat="1">
       <c r="B8" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" s="15" customFormat="1"/>
+    <row r="10" spans="2:2" s="15" customFormat="1"/>
+    <row r="11" spans="2:2" s="15" customFormat="1"/>
+    <row r="12" spans="2:2" s="15" customFormat="1"/>
+    <row r="13" spans="2:2" s="15" customFormat="1">
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:2" s="15" customFormat="1"/>
+    <row r="15" spans="2:2" s="15" customFormat="1"/>
+    <row r="16" spans="2:2" s="15" customFormat="1"/>
+    <row r="17" s="15" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2663,13 +2944,13 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" s="15" customFormat="1"/>
+    <row r="3" s="15" customFormat="1"/>
+    <row r="4" s="15" customFormat="1"/>
+    <row r="5" s="15" customFormat="1"/>
+    <row r="6" s="15" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2678,6 +2959,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8702BEDA-77DE-4923-8349-97AFB2AC1450}">
+  <dimension ref="A2:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EBB056-C0CB-49E0-BE1D-5AFD7B892548}">
   <dimension ref="A2:D23"/>
   <sheetViews>
@@ -2685,31 +3003,31 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -2717,7 +3035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -2725,7 +3043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -2733,56 +3051,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3">
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="18"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3">
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3">
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
@@ -2796,7 +3114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2804,14 +3122,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2819,7 +3137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +3145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2835,7 +3153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2843,42 +3161,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>39</v>
       </c>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw.cai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C740C0-492B-4844-8385-AFFD08B732AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFDC2F2-4EC7-4F33-92FE-BFEF760F8EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -549,6 +549,61 @@
   </si>
   <si>
     <t>08.クローズ</t>
+  </si>
+  <si>
+    <t>蔡</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>式样书中没给出 稼働区分 稼働区分2 稼働区分3 显示的格式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>datagrid在可编辑的状态下是否参照 追加时下拉的内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.显示（" ",1：稼働,2：非稼働）</t>
+  </si>
+  <si>
+    <t>1.是直接取数据库的值显示（" ",1,2）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DataGrid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题，具体参考sheet6</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -794,45 +849,48 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>区分和ライン区分长度都是1位，追加的时候，编辑内容是【コード+「:」+名称】，这两个项目的长度定义不一致，无法按照式样书编辑。</t>
+      <t xml:space="preserve">区分和ライン区分长度都是1位，追加的时候，编辑内容是【コード+「:」+名称】，这两个项目的长度定义不一致，无法按照式样书编辑。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019/10/15　王（志）
+【区分】和【ライン区分】两个字段的显示Text内容为【コード+「:」+名称】，绑定的Value内容为【コード】，コードマスタ表里存的コード列数据也是1位。具体可参照
+02_テーブル定義￥コードマスタ実データ.xlsx 的数据。也可参照シート「2」的贴图。</t>
     </r>
     <rPh sb="104" eb="105">
       <t>オウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>蔡</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>式样书中没给出 稼働区分 稼働区分2 稼働区分3 显示的格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>datagrid在可编辑的状态下是否参照 追加时下拉的内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.显示（" ",1：稼働,2：非稼働）</t>
-  </si>
-  <si>
-    <t>1.是直接取数据库的值显示（" ",1,2）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <rPh sb="181" eb="182">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
-      <t>DataGrid</t>
+      <t>datagrid中的combobox的</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Malgun Gothic Semilight"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="129"/>
       </rPr>
-      <t>显</t>
+      <t>值，也与追加时显示一致。请参照</t>
     </r>
     <r>
       <rPr>
@@ -842,18 +900,18 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>示</t>
+      <t>sheet6的回复</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>问题，具体参考sheet6</t>
-    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王(志)</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -864,11 +922,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -882,7 +940,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -918,7 +976,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -947,13 +1005,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -968,7 +1026,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -996,7 +1054,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1008,8 +1066,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic Semilight"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,6 +1115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,8 +1257,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1192,7 +1274,6 @@
     <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{E24371AC-11A1-4280-A77B-D730A1F5D019}"/>
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1880,6 +1961,67 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8953500" y="1733550"/>
+          <a:ext cx="6838950" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2015,6 +2157,433 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5267325" y="2000250"/>
+          <a:ext cx="3981450" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -143207"/>
+            <a:gd name="adj2" fmla="val 161007"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>请参照红框，在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>datagrid</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>里显示的时候，与追加时的内容一致。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>默认情况下，所有的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>combobox</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>里显示的值都是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「コード＋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>＋名称」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>作为显示值，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>作为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>值</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190500" y="5057775"/>
+          <a:ext cx="1362075" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2338,7 +2907,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2431,7 +3000,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="99">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="173.25" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2455,7 +3024,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>52</v>
@@ -2593,14 +3162,20 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="2">
+        <v>43753</v>
+      </c>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1">
@@ -2896,7 +3471,7 @@
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2938,19 +3513,229 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A9F8DA-B110-4D16-9D56-8C712B4F76FB}">
-  <dimension ref="A2:A6"/>
+  <dimension ref="B2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" s="15" customFormat="1"/>
-    <row r="3" s="15" customFormat="1"/>
-    <row r="4" s="15" customFormat="1"/>
-    <row r="5" s="15" customFormat="1"/>
-    <row r="6" s="15" customFormat="1"/>
+    <row r="2" spans="2:23" s="15" customFormat="1"/>
+    <row r="3" spans="2:23" s="15" customFormat="1"/>
+    <row r="4" spans="2:23" s="15" customFormat="1"/>
+    <row r="5" spans="2:23" s="15" customFormat="1"/>
+    <row r="6" spans="2:23" s="15" customFormat="1"/>
+    <row r="10" spans="2:23">
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2963,29 +3748,29 @@
   <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFDC2F2-4EC7-4F33-92FE-BFEF760F8EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BB8578-A1D4-4D62-BFD6-34EB41548AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,9 +508,6 @@
     <t>式样书记载了项目【稼働区分３】，【backdoor\02_テーブル定義\DBレイアウト\Ｍ＿顧客カレンダーマスタ.XLS】只记载了【稼働区分】和【稼働区分２】</t>
   </si>
   <si>
-    <t>先以基本设计书以及db统合版为准。若不一致，以基本设计书为准。在统合版里存在的表，暂时不去参照dbレイアウト文件夹内的版本</t>
-  </si>
-  <si>
     <t>・項目一覧</t>
     <rPh sb="1" eb="3">
       <t>コウモク</t>
@@ -911,6 +908,186 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>先以基本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以及db</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>准。若不一致，以基本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计书为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>准。在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合版里存在的表，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不去参照dbレイアウト文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">内的版本
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019/10/16 王(志)
+根据最新的表定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义书，稼働区分３字段已经被删除。设计书除「レイアウト」页以外，已更新。※暂时不更新レイアウト</t>
+    </r>
+    <rPh sb="73" eb="74">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>クブン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -922,7 +1099,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1256,27 @@
       <name val="Malgun Gothic Semilight"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2907,7 +3105,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2969,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>21</v>
@@ -2997,7 +3195,7 @@
         <v>43750</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="173.25" customHeight="1">
@@ -3024,7 +3222,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>52</v>
@@ -3033,7 +3231,7 @@
         <v>43750</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="42.75">
@@ -3069,7 +3267,7 @@
         <v>43750</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="42.75">
@@ -3105,10 +3303,10 @@
         <v>43750</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="28.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="69">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3132,7 +3330,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>52</v>
@@ -3141,7 +3339,7 @@
         <v>43750</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1">
@@ -3162,16 +3360,16 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="K7" s="2">
         <v>43753</v>
@@ -3478,7 +3676,7 @@
   <sheetData>
     <row r="2" spans="2:2" s="15" customFormat="1">
       <c r="B2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:2" s="15" customFormat="1"/>
@@ -3488,7 +3686,7 @@
     <row r="7" spans="2:2" s="15" customFormat="1"/>
     <row r="8" spans="2:2" s="15" customFormat="1">
       <c r="B8" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:2" s="15" customFormat="1"/>
@@ -3497,7 +3695,7 @@
     <row r="12" spans="2:2" s="15" customFormat="1"/>
     <row r="13" spans="2:2" s="15" customFormat="1">
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:2" s="15" customFormat="1"/>
@@ -3755,22 +3953,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BB8578-A1D4-4D62-BFD6-34EB41548AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF8AD10-0B5E-49C2-8438-D3CD34FE065C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30180" yWindow="135" windowWidth="22260" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -436,34 +436,6 @@
     <t>塗りつぶしなし</t>
     <rPh sb="0" eb="1">
       <t>ヌ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2.起票</t>
-    <rPh sb="2" eb="4">
-      <t>キヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3.起票</t>
-    <rPh sb="2" eb="4">
-      <t>キヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.起票</t>
-    <rPh sb="2" eb="4">
-      <t>キヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5.起票</t>
-    <rPh sb="2" eb="4">
-      <t>キヒョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1089,6 +1061,59 @@
     <rPh sb="90" eb="92">
       <t>クブン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>休憩時間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>休憩終了時間-休憩開始時間
+①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">【休憩時間】这个字段的类型是numeric(4,0)，这个值是以分钟体现的吗？
+如果是以小时体现，应该有小数位
+②上面的计算式只在式样【検索結果】部分体现了，【追加】部分没有说明，是追加的时候不需要计算吗？
+</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SC-M12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車種マスタ表的必须项目有下面的四个项目：
+1,車種コード
+2,車種名
+3,表示順序
+4,表示フラグ
+式样书里追加的时候只有【1,車種コード 2,車種名】，【3,表示順序 4,表示フラグ】没有记载说明，无法正常登录。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1099,7 +1124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1278,6 +1303,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1381,7 +1413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1458,6 +1490,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1473,7 +1508,139 @@
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3105,7 +3272,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3167,35 +3334,35 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>43750</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2">
         <v>43750</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="173.25" customHeight="1">
@@ -3203,35 +3370,35 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>43750</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2">
         <v>43750</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="42.75">
@@ -3239,35 +3406,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
         <v>43750</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2">
         <v>43750</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="42.75">
@@ -3275,35 +3442,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2">
         <v>43750</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2">
         <v>43750</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="69">
@@ -3311,35 +3478,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2">
         <v>43750</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2">
         <v>43750</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1">
@@ -3347,58 +3514,86 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2">
         <v>43753</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K7" s="2">
         <v>43753</v>
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="99">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43754</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="2"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="115.5">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43754</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="2"/>
@@ -3590,54 +3785,105 @@
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="14" priority="36">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="37">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="38">
+    <cfRule type="expression" dxfId="27" priority="53">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="39">
+    <cfRule type="expression" dxfId="26" priority="54">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="40">
+    <cfRule type="expression" dxfId="25" priority="55">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L22">
-    <cfRule type="expression" dxfId="9" priority="26">
+    <cfRule type="expression" dxfId="24" priority="41">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="27">
+    <cfRule type="expression" dxfId="23" priority="42">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="28">
+    <cfRule type="expression" dxfId="22" priority="43">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="29">
+    <cfRule type="expression" dxfId="21" priority="44">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="30">
+    <cfRule type="expression" dxfId="20" priority="45">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$C7="02.課題"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>$B8="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>$B8="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>$C8="02.課題"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>$B8="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$B8="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$C8="02.課題"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$B9="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$B9="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$C9="02.課題"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
+      <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3676,7 +3922,7 @@
   <sheetData>
     <row r="2" spans="2:2" s="15" customFormat="1">
       <c r="B2" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:2" s="15" customFormat="1"/>
@@ -3686,7 +3932,7 @@
     <row r="7" spans="2:2" s="15" customFormat="1"/>
     <row r="8" spans="2:2" s="15" customFormat="1">
       <c r="B8" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:2" s="15" customFormat="1"/>
@@ -3695,7 +3941,7 @@
     <row r="12" spans="2:2" s="15" customFormat="1"/>
     <row r="13" spans="2:2" s="15" customFormat="1">
       <c r="B13" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:2" s="15" customFormat="1"/>
@@ -3945,7 +4191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8702BEDA-77DE-4923-8349-97AFB2AC1450}">
   <dimension ref="A2:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -3953,22 +4199,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF8AD10-0B5E-49C2-8438-D3CD34FE065C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284086DA-1AF7-4744-A869-583681F82256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="135" windowWidth="22260" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1114,6 +1114,43 @@
 3,表示順序
 4,表示フラグ
 式样书里追加的时候只有【1,車種コード 2,車種名】，【3,表示順序 4,表示フラグ】没有记载说明，无法正常登录。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①休憩時間の単位は分(Min)です。
+②画面登録時、終了時間　－　開始時間で計算後の時間をMin数字で登録する。
+</t>
+    <rPh sb="1" eb="3">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一応無視して、車種コードと車種名だけDBに保存する。</t>
+    <rPh sb="0" eb="2">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャシュ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シャシュメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホゾン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3272,7 +3309,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3548,7 +3585,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>21</v>
@@ -3566,9 +3603,15 @@
       <c r="H8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="2"/>
+      <c r="I8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="2">
+        <v>43754</v>
+      </c>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="115.5">
@@ -3576,7 +3619,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>21</v>
@@ -3594,9 +3637,15 @@
       <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="2"/>
+      <c r="I9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2">
+        <v>43754</v>
+      </c>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1">

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284086DA-1AF7-4744-A869-583681F82256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA1A7F-2302-4ED0-8593-BC9E230677B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29385" yWindow="225" windowWidth="22260" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="22" r:id="rId2"/>
     <sheet name="2" sheetId="23" r:id="rId3"/>
     <sheet name="6" sheetId="24" r:id="rId4"/>
-    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId5"/>
-    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="9" sheetId="25" r:id="rId5"/>
+    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId6"/>
+    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -525,18 +526,18 @@
   </si>
   <si>
     <t>式样书中没给出 稼働区分 稼働区分2 稼働区分3 显示的格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>datagrid在可编辑的状态下是否参照 追加时下拉的内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.显示（" ",1：稼働,2：非稼働）</t>
   </si>
   <si>
     <t>1.是直接取数据库的值显示（" ",1,2）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -576,17 +577,17 @@
   </si>
   <si>
     <r>
-      <t>工程code</t>
+      <t>datagrid中的combobox的</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>值，也与追加时显示一致。请参照</t>
     </r>
     <r>
       <rPr>
@@ -596,17 +597,33 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>2位，区分和line区分</t>
+      <t>sheet6的回复</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王(志)</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>先以基本</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>暂时</t>
+      <t>设计书</t>
     </r>
     <r>
       <rPr>
@@ -616,17 +633,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>按table定</t>
+      <t>以及db</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>义书</t>
+      <t>统</t>
     </r>
     <r>
       <rPr>
@@ -636,17 +653,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>的</t>
+      <t>合版</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>长</t>
+      <t>为</t>
     </r>
     <r>
       <rPr>
@@ -656,17 +673,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>度</t>
+      <t>准。若不一致，以基本</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>对应</t>
+      <t>设计书为</t>
     </r>
     <r>
       <rPr>
@@ -676,17 +693,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>。code master表需要兼容其他数据，所以位数</t>
+      <t>准。在</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>设计</t>
+      <t>统</t>
     </r>
     <r>
       <rPr>
@@ -696,17 +713,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>的比</t>
+      <t>合版里存在的表，</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>较长</t>
+      <t>暂时</t>
     </r>
     <r>
       <rPr>
@@ -716,17 +733,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>。</t>
+      <t>不去参照dbレイアウト文件</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>统</t>
+      <t>夹</t>
     </r>
     <r>
       <rPr>
@@ -736,17 +753,57 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>合版里没有的表</t>
+      <t xml:space="preserve">内的版本
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019/10/16 王(志)
+根据最新的表定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义书，稼働区分３字段已经被删除。设计书除「レイアウト」页以外，已更新。※暂时不更新レイアウト</t>
+    </r>
+    <rPh sb="73" eb="74">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>休憩時間</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>暂时</t>
+      <t>=</t>
     </r>
     <r>
       <rPr>
@@ -756,316 +813,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>可根据dbレイアウト的表定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>，没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">问题
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">10/12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">王
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">区分和ライン区分长度都是1位，追加的时候，编辑内容是【コード+「:」+名称】，这两个项目的长度定义不一致，无法按照式样书编辑。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2019/10/15　王（志）
-【区分】和【ライン区分】两个字段的显示Text内容为【コード+「:」+名称】，绑定的Value内容为【コード】，コードマスタ表里存的コード列数据也是1位。具体可参照
-02_テーブル定義￥コードマスタ実データ.xlsx 的数据。也可参照シート「2」的贴图。</t>
-    </r>
-    <rPh sb="104" eb="105">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>datagrid中的combobox的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>值，也与追加时显示一致。请参照</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>sheet6的回复</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>王(志)</t>
-    <rPh sb="0" eb="1">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>先以基本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设计书</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以及db</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>合版</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>准。若不一致，以基本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设计书为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>准。在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>合版里存在的表，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>暂时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>不去参照dbレイアウト文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">内的版本
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2019/10/16 王(志)
-根据最新的表定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>义书，稼働区分３字段已经被删除。设计书除「レイアウト」页以外，已更新。※暂时不更新レイアウト</t>
-    </r>
-    <rPh sb="73" eb="74">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>休憩時間</t>
+      <t>休憩終了時間-休憩開始時間
+①</t>
     </r>
     <r>
       <rPr>
@@ -1075,27 +824,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>休憩終了時間-休憩開始時間
-①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">【休憩時間】这个字段的类型是numeric(4,0)，这个值是以分钟体现的吗？
 如果是以小时体现，应该有小数位
 ②上面的计算式只在式样【検索結果】部分体现了，【追加】部分没有说明，是追加的时候不需要计算吗？
@@ -1105,15 +833,6 @@
   </si>
   <si>
     <t>SC-M12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>車種マスタ表的必须项目有下面的四个项目：
-1,車種コード
-2,車種名
-3,表示順序
-4,表示フラグ
-式样书里追加的时候只有【1,車種コード 2,車種名】，【3,表示順序 4,表示フラグ】没有记载说明，无法正常登录。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1135,7 +854,460 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一応無視して、車種コードと車種名だけDBに保存する。</t>
+    <r>
+      <t>工程code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2位，区分和line区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>按table定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。code master表需要兼容其他数据，所以位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>较长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合版里没有的表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可根据dbレイアウト的表定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">问题
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10/12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">王
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">区分和ライン区分长度都是1位，追加的时候，编辑内容是【コード+「:」+名称】，这两个项目的长度定义不一致，无法按照式样书编辑。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019/10/15　王（志）
+【区分】和【ライン区分】两个字段的显示Text内容为【コード+「:」+名称】，绑定的Value内容为【コード】，コードマスタ表里存的コード列数据也是1位。具体可参照
+02_テーブル定義￥コードマスタ実データ.xlsx 的数据。也可参照シート「2」的贴图。</t>
+    </r>
+    <rPh sb="104" eb="105">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SC-M10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>車種マスタ表的必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>目有下面的四个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>目：
+1,車種コード
+2,車種名
+3,表示順序
+4,表示フラグ
+式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>里追加的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>候只有【1,車種コード 2,車種名】，【3,表示順序 4,表示フラグ】没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记载说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>明，无法正常登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一応無視して、車種コードと車種名だけDBに保存する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 王
+DBに表示順序と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">表示フラグは必須項目ですので、空白ではない。
+</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>イチオウ</t>
     </rPh>
@@ -1150,6 +1322,44 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ホゾン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB定義書</t>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・表示順序
+上記項目の属性は仕様書とDB定義書では一致しない
+詳細はシート「９」を参照してください。</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1161,7 +1371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1278,20 +1488,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Microsoft YaHei"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1345,6 +1541,27 @@
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1450,7 +1667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,9 +1744,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1545,7 +1759,931 @@
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="135">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2991,6 +4129,267 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>379752</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>37752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="9980952" cy="2780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>656457</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3600450"/>
+          <a:ext cx="6142857" cy="2085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2257425" y="2819400"/>
+          <a:ext cx="7839075" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1019175" y="5381625"/>
+          <a:ext cx="5191125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3308,8 +4707,8 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3426,7 +4825,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>48</v>
@@ -3479,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
@@ -3534,7 +4933,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>48</v>
@@ -3570,10 +4969,10 @@
         <v>61</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="K7" s="2">
         <v>43753</v>
@@ -3585,7 +4984,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>21</v>
@@ -3598,65 +4997,79 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="2">
         <v>43754</v>
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="115.5">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="106.5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2">
         <v>43754</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="26" t="s">
-        <v>73</v>
+      <c r="G9" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="2">
         <v>43754</v>
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="42.75">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43754</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="2"/>
@@ -3834,105 +5247,122 @@
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="29" priority="51">
+    <cfRule type="expression" dxfId="74" priority="61">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="52">
+    <cfRule type="expression" dxfId="73" priority="62">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="53">
+    <cfRule type="expression" dxfId="72" priority="63">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="71" priority="64">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="55">
+    <cfRule type="expression" dxfId="70" priority="65">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L22">
-    <cfRule type="expression" dxfId="24" priority="41">
+  <conditionalFormatting sqref="A2:L8 A10:L22">
+    <cfRule type="expression" dxfId="69" priority="51">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="42">
+    <cfRule type="expression" dxfId="68" priority="52">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="43">
+    <cfRule type="expression" dxfId="67" priority="53">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="44">
+    <cfRule type="expression" dxfId="66" priority="54">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="45">
+    <cfRule type="expression" dxfId="65" priority="55">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="64" priority="26">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="63" priority="27">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="62" priority="28">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="61" priority="29">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="60" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="59" priority="21">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="58" priority="22">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="40" priority="23">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="57" priority="24">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="56" priority="25">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="55" priority="16">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="54" priority="17">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="53" priority="18">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="52" priority="19">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="51" priority="20">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="A9:L9">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="49" priority="7">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="48" priority="8">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:L9">
+    <cfRule type="expression" dxfId="45" priority="1">
+      <formula>$B9="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="2">
+      <formula>$B9="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="3">
+      <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="4">
+      <formula>$C9="02.課題"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="5">
+      <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4267,13 +5697,40 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DF30E-3623-4CB4-8A86-B0BD81CCD412}">
+  <dimension ref="A3:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EBB056-C0CB-49E0-BE1D-5AFD7B892548}">
   <dimension ref="A2:D23"/>
   <sheetViews>
@@ -4392,12 +5849,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA1A7F-2302-4ED0-8593-BC9E230677B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35109B7D-E0D1-4244-BBBB-9795E65F8678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="225" windowWidth="22260" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1360,6 +1360,44 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB定義書にint型で定義されたが、実の場合に、8桁は充分です。画面は8型で設定してください。</t>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詹</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1759,7 +1797,7 @@
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="135">
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -1828,446 +1866,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2443,447 +2041,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4707,8 +3865,8 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5070,9 +4228,15 @@
       <c r="H10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="2">
+        <v>43754</v>
+      </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1">
@@ -5247,121 +4411,121 @@
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="74" priority="61">
+    <cfRule type="expression" dxfId="34" priority="61">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="62">
+    <cfRule type="expression" dxfId="33" priority="62">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="63">
+    <cfRule type="expression" dxfId="32" priority="63">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="64">
+    <cfRule type="expression" dxfId="31" priority="64">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="65">
+    <cfRule type="expression" dxfId="30" priority="65">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L8 A10:L22">
-    <cfRule type="expression" dxfId="69" priority="51">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="52">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="53">
+    <cfRule type="expression" dxfId="27" priority="53">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="54">
+    <cfRule type="expression" dxfId="26" priority="54">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="55">
+    <cfRule type="expression" dxfId="25" priority="55">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="64" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="28">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="25">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="55" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="50" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5707,7 +4871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DF30E-3623-4CB4-8A86-B0BD81CCD412}">
   <dimension ref="A3:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw.cai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35109B7D-E0D1-4244-BBBB-9795E65F8678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC9BAF-041C-4F91-BB0D-20BE16761D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="2" sheetId="23" r:id="rId3"/>
     <sheet name="6" sheetId="24" r:id="rId4"/>
     <sheet name="9" sheetId="25" r:id="rId5"/>
-    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId6"/>
-    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="10" sheetId="26" r:id="rId6"/>
+    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId7"/>
+    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1364,42 +1365,53 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DB定義書にint型で定義されたが、実の場合に、8桁は充分です。画面は8型で設定してください。</t>
-    <rPh sb="9" eb="10">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジュウブン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セッテイ</t>
-    </rPh>
+    <t>SC-M14</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>詹</t>
-    <rPh sb="0" eb="1">
-      <t>セン</t>
-    </rPh>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 設備コード 的combox数据源取值 和 追加项目 設備コード 的combox数据源取值 不相同，具体参考sheet10</t>
+    </r>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>查询时：</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加时：</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实这个两个設備コード 是这两张表的关联，追加时参考查询时会好点</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1409,11 +1421,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1427,7 +1439,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1463,7 +1475,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1492,13 +1504,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1513,7 +1525,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1527,7 +1539,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1600,6 +1612,13 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1705,7 +1724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1782,9 +1801,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1796,6 +1817,7 @@
     <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{E24371AC-11A1-4280-A77B-D730A1F5D019}"/>
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -3548,6 +3570,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312314</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="16085714" cy="685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>16990</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1714500"/>
+          <a:ext cx="16476190" cy="561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2743200"/>
+          <a:ext cx="4409524" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3864,9 +4023,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4228,25 +4387,31 @@
       <c r="H10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="26.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="E11" s="2">
+        <v>43754</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="2">
-        <v>43754</v>
-      </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -4871,7 +5036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DF30E-3623-4CB4-8A86-B0BD81CCD412}">
   <dimension ref="A3:A21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -4895,6 +5060,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2CC8D-6E8D-4D0F-A692-B4C443679435}">
+  <dimension ref="A2:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EBB056-C0CB-49E0-BE1D-5AFD7B892548}">
   <dimension ref="A2:D23"/>
   <sheetViews>
@@ -5013,7 +5210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw.cai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC9BAF-041C-4F91-BB0D-20BE16761D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85691C6E-7D1B-41E7-8606-531D7666F3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1412,6 +1412,20 @@
   <si>
     <t>其实这个两个設備コード 是这两张表的关联，追加时参考查询时会好点</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計書を更新しました。</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1425,7 +1439,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1439,7 +1453,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1475,7 +1489,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1504,13 +1518,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1525,7 +1539,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1539,7 +1553,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1806,6 +1820,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1817,7 +1832,6 @@
     <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{E24371AC-11A1-4280-A77B-D730A1F5D019}"/>
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -4023,9 +4037,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4387,9 +4401,15 @@
       <c r="H10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="2">
+        <v>43754</v>
+      </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="26.25">
@@ -4413,9 +4433,15 @@
         <v>81</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="2"/>
+      <c r="I11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="2">
+        <v>43754</v>
+      </c>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1">
@@ -5063,9 +5089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2CC8D-6E8D-4D0F-A692-B4C443679435}">
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85691C6E-7D1B-41E7-8606-531D7666F3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FEE88-5731-45D1-991E-29211E34D71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -1263,76 +1263,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">一応無視して、車種コードと車種名だけDBに保存する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 王
-DBに表示順序と</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">表示フラグは必須項目ですので、空白ではない。
-</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イチオウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ムシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャシュ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>シャシュメイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
       <t>シヨウショ</t>
@@ -1424,6 +1354,138 @@
     <t>設計書を更新しました。</t>
     <rPh sb="4" eb="6">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一応無視して、車種コードと車種名だけDBに保存する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 王
+DBに表示順序と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">表示フラグは必須項目ですので、空白ではない。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019/10/16　王(志)
+一応「0」で保存します。
+横展開要、今回追加した必須入力カラムは全部「0」で保存します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャシュ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シャシュメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ココロザシ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4037,9 +4099,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4344,7 +4406,7 @@
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="106.5">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="141.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4368,7 +4430,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>68</v>
@@ -4396,16 +4458,16 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" s="2">
         <v>43754</v>
@@ -4423,21 +4485,21 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2">
         <v>43754</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" s="2">
         <v>43754</v>
@@ -5070,12 +5132,12 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5095,17 +5157,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw.cai\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FEE88-5731-45D1-991E-29211E34D71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30FA4A4-2C65-4A75-9B5B-899064BEEE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="6" sheetId="24" r:id="rId4"/>
     <sheet name="9" sheetId="25" r:id="rId5"/>
     <sheet name="10" sheetId="26" r:id="rId6"/>
-    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId7"/>
-    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId8"/>
+    <sheet name="11" sheetId="27" r:id="rId7"/>
+    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId8"/>
+    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1487,6 +1488,170 @@
     <rPh sb="122" eb="124">
       <t>ホゾン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SC-M18</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蔡</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>检索条件的输入和检索时的结合条件的冲突</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索条件必须入力，但是结合条件却是任意。检索条件不是必须入力，但是结合条件却是必须的。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>两张表的结合条件对应的字段类型不一样，这个请确定一下。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关问题</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具体参考sheet11</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>检索出来的结果一览中 品名コード 数据来源于 生産品名マスタの品名コード ，这边数据也可以取 用 Ｍ＿補助マスタ.コード吧？</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>昇順表示 和 降順表示 完善一下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计书，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>具体按照什</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行升序和降序。</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1497,11 +1662,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1515,7 +1680,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1551,7 +1716,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1580,13 +1745,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1601,7 +1766,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1615,7 +1780,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1694,6 +1859,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1882,7 +2055,6 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1894,6 +2066,7 @@
     <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{E24371AC-11A1-4280-A77B-D730A1F5D019}"/>
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -3783,6 +3956,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407895</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="13438095" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>37474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="13009524" cy="5009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609181</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>56907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8743950"/>
+          <a:ext cx="3352381" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>294895</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>56950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="8572500"/>
+          <a:ext cx="3038095" cy="1600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>26343</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>142343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12001500"/>
+          <a:ext cx="17857143" cy="4257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4100,8 +4498,8 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4494,7 +4892,9 @@
       <c r="G11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="I11" s="7" t="s">
         <v>85</v>
       </c>
@@ -4507,28 +4907,56 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43761</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="2"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43761</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="2"/>
@@ -5178,6 +5606,58 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D178B91D-15DD-468D-B4FB-CCDB0B5BC4DE}">
+  <dimension ref="A1:A69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EBB056-C0CB-49E0-BE1D-5AFD7B892548}">
   <dimension ref="A2:D23"/>
   <sheetViews>
@@ -5296,7 +5776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw.cai\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30FA4A4-2C65-4A75-9B5B-899064BEEE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED52E00-8B17-4E24-9FF2-7D295E7F7C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1652,6 +1652,65 @@
       </rPr>
       <t>行升序和降序。</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計書を更新しました。
+テーブルの結合には問題なし。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マウスで選択した項目の昇順や降順で表示する。
+最大三つ項目の昇順や降順を設定可能としてください。
+例：設定コード、設定コード名、設定コード２を選択する場合、昇順を押下すると、設定コード、設定コード名、設定コード２の昇順で表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1666,7 +1725,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1680,7 +1739,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1716,7 +1775,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1745,13 +1804,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1766,7 +1825,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1780,7 +1839,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2055,6 +2114,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -2066,7 +2126,6 @@
     <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{E24371AC-11A1-4280-A77B-D730A1F5D019}"/>
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -4497,9 +4556,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4906,7 +4965,7 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="28.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4929,12 +4988,16 @@
       <c r="H12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="57">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4957,8 +5020,12 @@
       <c r="H13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="7"/>
     </row>
@@ -5609,7 +5676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D178B91D-15DD-468D-B4FB-CCDB0B5BC4DE}">
   <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw.cai\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED52E00-8B17-4E24-9FF2-7D295E7F7C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D637B0A4-9792-4A97-970E-DEBCB752915D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="9" sheetId="25" r:id="rId5"/>
     <sheet name="10" sheetId="26" r:id="rId6"/>
     <sheet name="11" sheetId="27" r:id="rId7"/>
-    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId8"/>
-    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId9"/>
+    <sheet name="13" sheetId="28" r:id="rId8"/>
+    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1712,6 +1713,68 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蔡</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">複写 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>个机能的相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关问题，具体参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sheet13</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.这个功能主要是copy数据？需要copy哪些数据？Copy后的哪些字段需要修改？</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.在检查 Ｍ＿補助マスタ表中是否存在这样的数据 是不需要跟 生産品名マスタ 关联的，这样写就可以了  Ｍ＿補助マスタ.コード =  画面．複写品名コード</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.这边是不是应该查出有一条或者以上的数据就会报错终止？（Ｍ＿補助マスタ 有两个Key，这边只用一个Key作为检索条件）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1725,7 +1788,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1739,7 +1802,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1775,7 +1838,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1804,13 +1867,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1825,7 +1888,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1839,7 +1902,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2114,7 +2177,6 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -2126,6 +2188,7 @@
     <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{E24371AC-11A1-4280-A77B-D730A1F5D019}"/>
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -4240,6 +4303,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17590</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>37345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="857250"/>
+          <a:ext cx="11676190" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4556,9 +4668,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5030,14 +5142,28 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43761</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="2"/>
@@ -5301,6 +5427,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60E4052-C34C-436F-9D4B-E990F059C15C}">
   <dimension ref="B2:B17"/>
@@ -5725,6 +5944,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C19B2B-FE61-4922-9D46-E8217B64EAF8}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EBB056-C0CB-49E0-BE1D-5AFD7B892548}">
   <dimension ref="A2:D23"/>
   <sheetViews>
@@ -5841,97 +6092,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw.cai\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D637B0A4-9792-4A97-970E-DEBCB752915D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F741494-97BD-4C60-BCA6-674528E62AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="420" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -98,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1775,6 +1778,20 @@
   <si>
     <t>3.这边是不是应该查出有一条或者以上的数据就会报错终止？（Ｍ＿補助マスタ 有两个Key，这边只用一个Key作为检索条件）</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>設計書を更新しました。
+他の内容をsheet13に記載しました。</t>
+    <rPh sb="12" eb="13">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1788,7 +1805,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1802,7 +1819,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1838,7 +1855,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1867,13 +1884,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1888,7 +1905,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1902,7 +1919,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2177,6 +2194,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -2188,7 +2206,6 @@
     <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{E24371AC-11A1-4280-A77B-D730A1F5D019}"/>
     <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -4349,6 +4366,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="923925"/>
+          <a:ext cx="6477000" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①コピーデータ：Ｍ＿補助マスタにコード以外の項目</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②ここでチェックではない、コピー用データを取得する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③重複チェックが必要</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ちなみに、検索結果でデータがある時、複写機能は無効</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4668,9 +4773,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5106,7 +5211,9 @@
       <c r="J12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>43761</v>
+      </c>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="57">
@@ -5138,10 +5245,12 @@
       <c r="J13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>43761</v>
+      </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="28.5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5164,9 +5273,15 @@
       <c r="H14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="2"/>
+      <c r="I14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="2">
+        <v>43761</v>
+      </c>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1">
@@ -5838,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DF30E-3623-4CB4-8A86-B0BD81CCD412}">
   <dimension ref="A3:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -5947,9 +6062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C19B2B-FE61-4922-9D46-E8217B64EAF8}">
   <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F741494-97BD-4C60-BCA6-674528E62AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04ED25F-DD8B-41DC-AE02-C236E63201A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="420" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37845" yWindow="285" windowWidth="17010" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="10" sheetId="26" r:id="rId6"/>
     <sheet name="11" sheetId="27" r:id="rId7"/>
     <sheet name="13" sheetId="28" r:id="rId8"/>
-    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId9"/>
-    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="14" sheetId="29" r:id="rId9"/>
+    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId10"/>
+    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1790,6 +1791,103 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面共通仕様</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面共通仕様(文字フォント)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②二期の画面種類は「事務所」ですか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③ヘッダエリアの画面名称の文字フォントは仕様書をを参照ですか？</t>
+    <rPh sb="20" eb="23">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①文字フォントは画面のフォントですか？画面レイアウトの文字フォントは基準を参照しますか？それとも仕様書を参照しますか？</t>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「14」シートを参照してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面共通仕様は下記内容を記載されています。
+・一覧の最大表示件数について
+・	検索結果などの一覧の最大表示件数は基本1000件とし、無制限に表示されることがないように制限する。
+・	件数を超えるような場合は警告メッセージを表示する。
+・	（例）「検索結果表示の最大件数ｘ,ｘｘｘ件を超えています。」
+①一期は実装されていません。二期は実装が必要ですか？
+・検索結果一覧などのグリッドの高さと幅は基本は固定とする。
+②高さと幅の基準は何ですか？
+仕様書の画面レイアウトですか？
+③操作ログは実装が必要ですか？</t>
+    <rPh sb="7" eb="11">
+      <t>カキナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ニキ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="223" eb="226">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4457,6 +4555,372 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>208067</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>75590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1200150"/>
+          <a:ext cx="11866667" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>275076</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5486400"/>
+          <a:ext cx="9190476" cy="2057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4181475" y="2000250"/>
+          <a:ext cx="590550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -43820"/>
+            <a:gd name="adj2" fmla="val -89972"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①、②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6981825" y="4495800"/>
+          <a:ext cx="590550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -53497"/>
+            <a:gd name="adj2" fmla="val 147528"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="6496050"/>
+          <a:ext cx="552450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59405"/>
+            <a:gd name="adj2" fmla="val 98570"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4773,9 +5237,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5085,7 +5549,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>21</v>
@@ -5119,7 +5583,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>21</v>
@@ -5153,7 +5617,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>21</v>
@@ -5187,7 +5651,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>21</v>
@@ -5221,7 +5685,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>21</v>
@@ -5255,7 +5719,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>21</v>
@@ -5285,28 +5749,56 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43774</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="2"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2"/>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="185.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43774</v>
+      </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="2"/>
@@ -5543,6 +6035,125 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EBB056-C0CB-49E0-BE1D-5AFD7B892548}">
+  <dimension ref="A2:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -6089,120 +6700,33 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EBB056-C0CB-49E0-BE1D-5AFD7B892548}">
-  <dimension ref="A2:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F22A16-317B-4EC6-B614-8281A726BD35}">
+  <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04ED25F-DD8B-41DC-AE02-C236E63201A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4379F8AB-76FA-42A4-925E-4DB37C4DB4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37845" yWindow="285" windowWidth="17010" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -102,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="111">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1888,6 +1885,66 @@
     </rPh>
     <rPh sb="249" eb="251">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①実は一期も対応対象ですが、今回は二期から対応します。一期は一旦無視してください。
+②基本に特に要求なしです。できれば、画面のサイズより合わせるほうが良いです。
+もう一つは、フォームサイズを変更したときに、明細部分の枠サイズもあわせて変更する必要があります。</t>
+    <rPh sb="1" eb="2">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ヒト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4918,6 +4975,307 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7048500" y="1447800"/>
+          <a:ext cx="3524250" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -97722"/>
+            <a:gd name="adj2" fmla="val -99680"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①画面の文字フォントです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フォントを参照しますが、サイズを参照しないでください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>②「事務所」です。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="3209925"/>
+          <a:ext cx="3524250" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55290"/>
+            <a:gd name="adj2" fmla="val 71474"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>③共通仕様書のフォントをご参照ください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5239,7 +5597,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5772,8 +6130,12 @@
         <v>24</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="2">
+        <v>43774</v>
+      </c>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="185.25">
@@ -5799,9 +6161,15 @@
       <c r="H16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="2"/>
+      <c r="I16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="2">
+        <v>43774</v>
+      </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1">
@@ -6703,9 +7071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F22A16-317B-4EC6-B614-8281A726BD35}">
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4379F8AB-76FA-42A4-925E-4DB37C4DB4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44B5DB0-EBA3-4A1F-B8D9-E8A57B5D6695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1891,7 +1891,8 @@
   <si>
     <t>①実は一期も対応対象ですが、今回は二期から対応します。一期は一旦無視してください。
 ②基本に特に要求なしです。できれば、画面のサイズより合わせるほうが良いです。
-もう一つは、フォームサイズを変更したときに、明細部分の枠サイズもあわせて変更する必要があります。</t>
+もう一つは、フォームサイズを変更したときに、明細部分の枠サイズもあわせて変更する必要があります。
+③ログについて、現在時点で対応しない。</t>
     <rPh sb="1" eb="2">
       <t>ジツ</t>
     </rPh>
@@ -1945,6 +1946,15 @@
     </rPh>
     <rPh sb="83" eb="84">
       <t>ヒト</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44B5DB0-EBA3-4A1F-B8D9-E8A57B5D6695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA901B2E-8240-40F3-8EB0-8FD29CEA9CB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34335" yWindow="960" windowWidth="19710" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -99,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1955,6 +1958,55 @@
     </rPh>
     <rPh sb="143" eb="145">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SC-Z01_在庫照会</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書に下記条件を記載されています。
+①
+・在庫データ
+・LEFT OUTER JOIN 受払データ　受払データ１
+・ON 在庫データ.事業所コード　＝　受払データ１.事業所コード
+②
+・受払データ１.受払区分 ＝ '01'：受入
+・受払データ２.受払区分 ＝ '02'：払出
+・受払データ３.受払区分 ＝ '08'：その他払出
+・受払データ４.受払区分 ＝ '0A'：その他払出取消
+在庫データには事業所コードがありません。
+「在庫データ.置き場事業所コード　＝　受払データ１.事業所コード」が正しいですか？
+受払データ.受払区分の桁数は「1」なので、値は「1,2,8,A」ですか？</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="279" eb="280">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昇順と降順ボタンは下記内容を記載されています。
+・検索結果を選択した項目の昇順で表示する。
+・検索結果を選択した項目の降順で表示する。
+選択項目は複数ですか？
+単項なら、ボタンなしで並べ替えもできます。</t>
+    <rPh sb="9" eb="13">
+      <t>カキナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5606,8 +5658,8 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6121,7 +6173,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>21</v>
@@ -6153,7 +6205,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>21</v>
@@ -6182,29 +6234,53 @@
       </c>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="213.75">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43774</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="2"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="85.5">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43774</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="2"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA901B2E-8240-40F3-8EB0-8FD29CEA9CB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D43E4C0-0975-4D12-828A-9AC530E58814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34335" yWindow="960" windowWidth="19710" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31215" yWindow="405" windowWidth="22485" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2007,6 +2007,44 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>仕様書に下記集計条件を記載されています。
+・在庫データ.事業所コード
+・在庫データ.パック品名略称
+下記の検索項目は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>どのように出力しますか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+①在庫データ.工程
+②在庫データ.品名コード
+③製品マスタ.客先部品番号</t>
+    </r>
+    <rPh sb="51" eb="53">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5659,7 +5697,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6286,15 +6324,27 @@
       <c r="K18" s="2"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="116.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43775</v>
+      </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="2"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D43E4C0-0975-4D12-828A-9AC530E58814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="405" windowWidth="22485" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31215" yWindow="405" windowWidth="22485" windowHeight="14655"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -22,13 +21,14 @@
     <sheet name="11" sheetId="27" r:id="rId7"/>
     <sheet name="13" sheetId="28" r:id="rId8"/>
     <sheet name="14" sheetId="29" r:id="rId9"/>
-    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId10"/>
-    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId11"/>
+    <sheet name="19" sheetId="30" r:id="rId10"/>
+    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId11"/>
+    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,12 +46,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tsis</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2048,19 +2048,67 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve">SC-K20_全工程で試作の在庫払出可能化
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蔡</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样书问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 参考sheet19</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２．レイアウト</t>
+  </si>
+  <si>
+    <t>レイアウト与 項目一覧 冲突</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>４．イベント仕様</t>
+  </si>
+  <si>
+    <t>３．項目一覧</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2074,7 +2122,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2110,7 +2158,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2139,13 +2187,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2160,7 +2208,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2174,7 +2222,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2261,6 +2309,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -2449,20 +2504,64 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="9" xr:uid="{6BE50389-6A0D-4270-ABFF-4FEC11168B57}"/>
-    <cellStyle name="標準 35" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="標準 37 2 2 2 2 3" xfId="11" xr:uid="{0853DD5E-AD30-4D32-9E97-DEE490CBB3B5}"/>
-    <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{E24371AC-11A1-4280-A77B-D730A1F5D019}"/>
-    <cellStyle name="標準 4" xfId="8" xr:uid="{AD086098-8024-4E13-8C40-7536D6890C01}"/>
-    <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="3"/>
+    <cellStyle name="標準 2 3" xfId="4"/>
+    <cellStyle name="標準 2 4" xfId="7"/>
+    <cellStyle name="標準 3" xfId="5"/>
+    <cellStyle name="標準 3 2 2" xfId="9"/>
+    <cellStyle name="標準 35" xfId="6"/>
+    <cellStyle name="標準 37 2 2 2 2 3" xfId="11"/>
+    <cellStyle name="標準 37 2 2 3 3" xfId="10"/>
+    <cellStyle name="標準 4" xfId="8"/>
+    <cellStyle name="標準 5" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2809,7 +2908,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2952,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2996,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +3040,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3111,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,7 +3155,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3199,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3144,7 +3243,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3309,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3276,7 +3375,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3441,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,7 +3507,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3551,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3496,7 +3595,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,7 +3639,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3883,7 +3982,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3972,7 +4071,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4016,7 +4115,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4060,7 +4159,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4243,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4233,7 +4332,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4277,7 +4376,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4321,7 +4420,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4370,7 +4469,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4414,7 +4513,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4458,7 +4557,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4502,7 +4601,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4546,7 +4645,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4595,7 +4694,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4639,7 +4738,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4732,7 +4831,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4776,7 +4875,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4820,7 +4919,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4911,7 +5010,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5002,7 +5101,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5093,7 +5192,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5301,7 +5400,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5374,6 +5473,125 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>103219</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="12447619" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170314</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2743200"/>
+          <a:ext cx="9085714" cy="1076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>74305</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="15161905" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5691,13 +5909,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6350,15 +6568,27 @@
       <c r="K19" s="2"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="28.5">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43775</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="2"/>
@@ -6393,124 +6623,124 @@
       <c r="L22" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L22"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="34" priority="61">
+    <cfRule type="expression" dxfId="39" priority="61">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="62">
+    <cfRule type="expression" dxfId="38" priority="62">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="63">
+    <cfRule type="expression" dxfId="37" priority="63">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="64">
+    <cfRule type="expression" dxfId="36" priority="64">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="65">
+    <cfRule type="expression" dxfId="35" priority="65">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L8 A10:L22">
-    <cfRule type="expression" dxfId="29" priority="51">
+    <cfRule type="expression" dxfId="34" priority="51">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="52">
+    <cfRule type="expression" dxfId="33" priority="52">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="53">
+    <cfRule type="expression" dxfId="32" priority="53">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="31" priority="54">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="55">
+    <cfRule type="expression" dxfId="30" priority="55">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6520,13 +6750,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>アイテム!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>アイテム!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -6539,7 +6769,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EBB056-C0CB-49E0-BE1D-5AFD7B892548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6657,8 +6924,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6751,7 +7018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60E4052-C34C-436F-9D4B-E990F059C15C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6796,7 +7063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A9F8DA-B110-4D16-9D56-8C712B4F76FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7028,7 +7295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8702BEDA-77DE-4923-8349-97AFB2AC1450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -7065,7 +7332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DF30E-3623-4CB4-8A86-B0BD81CCD412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -7092,7 +7359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2CC8D-6E8D-4D0F-A692-B4C443679435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7122,7 +7389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D178B91D-15DD-468D-B4FB-CCDB0B5BC4DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
@@ -7174,7 +7441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C19B2B-FE61-4922-9D46-E8217B64EAF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7204,7 +7471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F22A16-317B-4EC6-B614-8281A726BD35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA0C17F-3A50-49C2-992A-86CA22C11D75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="405" windowWidth="22485" windowHeight="14655"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -33,25 +34,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tsis</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2058,18 +2051,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>式</t>
+    <t>２．レイアウト</t>
+  </si>
+  <si>
+    <t>レイアウト与 項目一覧 冲突</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>４．イベント仕様</t>
+  </si>
+  <si>
+    <t>３．項目一覧</t>
+  </si>
+  <si>
+    <t>検索時間の詳細説明は記載されていません。
+例：　
+初期表示時、表示/非表示
+検索ボタン押下時の状態
+検索開始時間または検索終了時間</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>SC-Z01_在庫照会(</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>样书问题</t>
+      <t>横展開が必要</t>
     </r>
     <r>
       <rPr>
@@ -2079,28 +2093,61 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> 参考sheet19</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>２．レイアウト</t>
-  </si>
-  <si>
-    <t>レイアウト与 項目一覧 冲突</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>４．イベント仕様</t>
-  </si>
-  <si>
-    <t>３．項目一覧</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">仕様書の「２．レイアウト」シートにエクセルボタンがあります。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「項目一覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」と「イベント仕様」シートはエクセルボタンがなく、クリアボタンが記載されています。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>19シートを参照してください。</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -2108,7 +2155,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2122,7 +2169,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2158,7 +2205,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2187,13 +2234,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2208,7 +2255,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2222,7 +2269,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2315,9 +2362,8 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2504,64 +2550,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="3"/>
-    <cellStyle name="標準 2 3" xfId="4"/>
-    <cellStyle name="標準 2 4" xfId="7"/>
-    <cellStyle name="標準 3" xfId="5"/>
-    <cellStyle name="標準 3 2 2" xfId="9"/>
-    <cellStyle name="標準 35" xfId="6"/>
-    <cellStyle name="標準 37 2 2 2 2 3" xfId="11"/>
-    <cellStyle name="標準 37 2 2 3 3" xfId="10"/>
-    <cellStyle name="標準 4" xfId="8"/>
-    <cellStyle name="標準 5" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 35" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 37 2 2 2 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -2908,7 +2910,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,7 +2954,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2996,7 +2998,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3042,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3111,7 +3113,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3157,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3201,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3245,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3311,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,7 +3377,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,7 +3443,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3509,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +3553,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3595,7 +3597,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3639,7 +3641,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3982,7 +3984,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4071,7 +4073,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,7 +4117,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4159,7 +4161,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4243,7 +4245,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4332,7 +4334,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4376,7 +4378,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4422,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4469,7 +4471,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4513,7 +4515,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4557,7 +4559,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4601,7 +4603,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4645,7 +4647,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4694,7 +4696,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4738,7 +4740,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4831,7 +4833,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4875,7 +4877,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4919,7 +4921,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5010,7 +5012,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5101,7 +5103,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5192,7 +5194,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5400,7 +5402,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5495,7 +5497,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5533,7 +5541,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5571,7 +5585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5909,13 +5929,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6568,7 +6588,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="28.5">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -6584,7 +6604,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>116</v>
@@ -6594,15 +6614,27 @@
       <c r="K20" s="2"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="71.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43775</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="2"/>
@@ -6623,124 +6655,124 @@
       <c r="L22" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L22"/>
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="39" priority="61">
+    <cfRule type="expression" dxfId="34" priority="61">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="62">
+    <cfRule type="expression" dxfId="33" priority="62">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="63">
+    <cfRule type="expression" dxfId="32" priority="63">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="64">
+    <cfRule type="expression" dxfId="31" priority="64">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="65">
+    <cfRule type="expression" dxfId="30" priority="65">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L8 A10:L22">
-    <cfRule type="expression" dxfId="34" priority="51">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="52">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="53">
+    <cfRule type="expression" dxfId="27" priority="53">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="54">
+    <cfRule type="expression" dxfId="26" priority="54">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="55">
+    <cfRule type="expression" dxfId="25" priority="55">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6750,13 +6782,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>アイテム!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>アイテム!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -6769,7 +6801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6780,22 +6812,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6806,7 +6838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6925,7 +6957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7018,7 +7050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7063,7 +7095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7295,7 +7327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -7332,7 +7364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -7359,7 +7391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7389,7 +7421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
@@ -7441,7 +7473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7471,7 +7503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA0C17F-3A50-49C2-992A-86CA22C11D75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B0D4BC-0066-404E-BF48-E645BBEA5E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,10 +29,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="128">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2140,6 +2146,185 @@
     </rPh>
     <rPh sb="84" eb="86">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>①結合条件として、在庫データ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>品名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>事業所コード　＝　受払データ１.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>品名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>事業所コードで、設計書を更新しました。
+②値は「1,2,8,A」で実装ください。（設計書を未修正で、お客さんと確認中です）</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="80" eb="83">
+      <t>ミシュウセイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザがマウスで選択した列でソートする。複数可能です。
+</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計書を更新しました。</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①初期表示時、検索時間という文言が表示する。値が表示しません。
+②検索ボタン押下する時、押下する時点の年月日時分で値を更新する。
+</t>
+    <rPh sb="1" eb="3">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジフン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5934,8 +6119,8 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6531,9 +6716,15 @@
       <c r="H17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="2"/>
+      <c r="I17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="2">
+        <v>43775</v>
+      </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="85.5">
@@ -6557,9 +6748,15 @@
       <c r="H18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="2"/>
+      <c r="I18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="2">
+        <v>43775</v>
+      </c>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="116.25">
@@ -6583,9 +6780,15 @@
       <c r="H19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="2"/>
+      <c r="I19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="2">
+        <v>43775</v>
+      </c>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="45">
@@ -6635,9 +6838,15 @@
       <c r="H21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="2"/>
+      <c r="I21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="2">
+        <v>43775</v>
+      </c>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1">
@@ -6805,7 +7014,7 @@
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B0D4BC-0066-404E-BF48-E645BBEA5E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346CDB31-D942-4CA0-BC99-F3F398188D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2326,6 +2326,10 @@
     <rPh sb="59" eb="61">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計書を更新しました。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6120,7 +6124,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6812,9 +6816,15 @@
       <c r="H20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="2"/>
+      <c r="I20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="2">
+        <v>43775</v>
+      </c>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="71.25">

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346CDB31-D942-4CA0-BC99-F3F398188D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,12 +44,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tsis</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="130">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2332,19 +2331,106 @@
     <t>設計書を更新しました。</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>1)、受払データ登録処理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">问题
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的字段中没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> シーケンス 的信息</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2358,7 +2444,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2394,7 +2480,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2423,13 +2509,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2444,7 +2530,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2458,7 +2544,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2553,6 +2639,13 @@
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2739,20 +2832,152 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準 35" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準 37 2 2 2 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="3"/>
+    <cellStyle name="標準 2 3" xfId="4"/>
+    <cellStyle name="標準 2 4" xfId="7"/>
+    <cellStyle name="標準 3" xfId="5"/>
+    <cellStyle name="標準 3 2 2" xfId="9"/>
+    <cellStyle name="標準 35" xfId="6"/>
+    <cellStyle name="標準 37 2 2 2 2 3" xfId="11"/>
+    <cellStyle name="標準 37 2 2 3 3" xfId="10"/>
+    <cellStyle name="標準 4" xfId="8"/>
+    <cellStyle name="標準 5" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3099,7 +3324,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,7 +3368,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3412,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3456,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,7 +3527,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,7 +3571,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3390,7 +3615,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,7 +3659,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3725,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3566,7 +3791,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3857,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3923,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3742,7 +3967,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3786,7 +4011,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3830,7 +4055,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4173,7 +4398,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4487,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4306,7 +4531,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4350,7 +4575,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4434,7 +4659,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4523,7 +4748,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4567,7 +4792,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4611,7 +4836,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4660,7 +4885,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4704,7 +4929,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4748,7 +4973,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4792,7 +5017,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +5061,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +5110,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4929,7 +5154,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5022,7 +5247,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5066,7 +5291,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5110,7 +5335,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5201,7 +5426,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5292,7 +5517,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5383,7 +5608,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5591,7 +5816,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5689,7 +5914,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5733,7 +5958,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5777,7 +6002,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6118,13 +6343,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6859,139 +7084,151 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="28.5">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43775</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="2"/>
       <c r="L22" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L22"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="34" priority="61">
+    <cfRule type="expression" dxfId="49" priority="61">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="62">
+    <cfRule type="expression" dxfId="48" priority="62">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="63">
+    <cfRule type="expression" dxfId="47" priority="63">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="64">
+    <cfRule type="expression" dxfId="46" priority="64">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="65">
+    <cfRule type="expression" dxfId="45" priority="65">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L8 A10:L22">
-    <cfRule type="expression" dxfId="29" priority="51">
+    <cfRule type="expression" dxfId="44" priority="51">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="52">
+    <cfRule type="expression" dxfId="43" priority="52">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="53">
+    <cfRule type="expression" dxfId="42" priority="53">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="41" priority="54">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="55">
+    <cfRule type="expression" dxfId="40" priority="55">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="39" priority="26">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="38" priority="27">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="37" priority="28">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="36" priority="29">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="34" priority="21">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="33" priority="22">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="31" priority="24">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="29" priority="16">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="28" priority="17">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7001,13 +7238,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>アイテム!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>アイテム!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -7020,7 +7257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7057,7 +7294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7176,7 +7413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7269,7 +7506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7314,7 +7551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7546,7 +7783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -7583,7 +7820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -7610,7 +7847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7640,7 +7877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
@@ -7692,7 +7929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7722,7 +7959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB5204D-1A64-44C5-8E3F-91E790B30F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -33,23 +34,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tsis</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2418,11 +2413,24 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>シーケンスは自動採番項目です。</t>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -2430,7 +2438,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2444,7 +2452,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2480,7 +2488,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2509,13 +2517,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2530,7 +2538,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2544,7 +2552,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2832,152 +2840,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="3"/>
-    <cellStyle name="標準 2 3" xfId="4"/>
-    <cellStyle name="標準 2 4" xfId="7"/>
-    <cellStyle name="標準 3" xfId="5"/>
-    <cellStyle name="標準 3 2 2" xfId="9"/>
-    <cellStyle name="標準 35" xfId="6"/>
-    <cellStyle name="標準 37 2 2 2 2 3" xfId="11"/>
-    <cellStyle name="標準 37 2 2 3 3" xfId="10"/>
-    <cellStyle name="標準 4" xfId="8"/>
-    <cellStyle name="標準 5" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 35" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 37 2 2 2 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -3324,7 +3200,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3368,7 +3244,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,7 +3288,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3456,7 +3332,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3403,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3571,7 +3447,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3615,7 +3491,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3659,7 +3535,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,7 +3601,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3791,7 +3667,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3857,7 +3733,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3923,7 +3799,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3967,7 +3843,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4011,7 +3887,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4055,7 +3931,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4398,7 +4274,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4487,7 +4363,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4531,7 +4407,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4575,7 +4451,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4659,7 +4535,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4748,7 +4624,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4792,7 +4668,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +4712,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +4761,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4929,7 +4805,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4973,7 +4849,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5017,7 +4893,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +4937,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5110,7 +4986,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5154,7 +5030,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5247,7 +5123,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5291,7 +5167,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +5211,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5426,7 +5302,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5517,7 +5393,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5608,7 +5484,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5816,7 +5692,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5914,7 +5790,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5958,7 +5834,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6002,7 +5878,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6343,13 +6219,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7105,130 +6981,136 @@
       <c r="H22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="2"/>
+      <c r="I22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="2">
+        <v>43775</v>
+      </c>
       <c r="L22" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L22"/>
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="49" priority="61">
+    <cfRule type="expression" dxfId="34" priority="61">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="62">
+    <cfRule type="expression" dxfId="33" priority="62">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="63">
+    <cfRule type="expression" dxfId="32" priority="63">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="64">
+    <cfRule type="expression" dxfId="31" priority="64">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="65">
+    <cfRule type="expression" dxfId="30" priority="65">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L8 A10:L22">
-    <cfRule type="expression" dxfId="44" priority="51">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="52">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="53">
+    <cfRule type="expression" dxfId="27" priority="53">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="54">
+    <cfRule type="expression" dxfId="26" priority="54">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="55">
+    <cfRule type="expression" dxfId="25" priority="55">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="39" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="28">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="34" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="25">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="29" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7238,13 +7120,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>アイテム!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>アイテム!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -7257,7 +7139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7294,7 +7176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7413,7 +7295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7506,7 +7388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7551,7 +7433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7783,7 +7665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -7820,7 +7702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -7847,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7877,7 +7759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
@@ -7929,7 +7811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7959,7 +7841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB5204D-1A64-44C5-8E3F-91E790B30F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D0EFD0-02D9-4B70-AE69-30DD968DF47A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="132">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2423,6 +2423,33 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「４．イベント仕様」シートに下記検索条件を記載されています。
+・在庫データ.品種コード＝画面.品種コード
+・在庫データ.車種コード＝画面.車種コード
+上記項目は在庫データに存在しません。「生産製品マスタ」テーブルが正しいですか？
+生産製品マスタ.品種コード＝画面.品種コード
+生産製品マスタ.車種コード＝画面.車種コード</t>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>タダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2853,7 +2880,95 @@
     <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6221,11 +6336,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6805,7 +6920,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
@@ -6837,7 +6952,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
@@ -6869,7 +6984,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
@@ -6901,7 +7016,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
@@ -6933,7 +7048,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
@@ -6965,7 +7080,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
@@ -6991,127 +7106,425 @@
         <v>43775</v>
       </c>
       <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="99.75">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43775</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="34" priority="61">
+    <cfRule type="expression" dxfId="44" priority="71">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="62">
+    <cfRule type="expression" dxfId="43" priority="72">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="63">
+    <cfRule type="expression" dxfId="42" priority="73">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="64">
+    <cfRule type="expression" dxfId="41" priority="74">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="65">
+    <cfRule type="expression" dxfId="40" priority="75">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L8 A10:L22">
-    <cfRule type="expression" dxfId="29" priority="51">
+  <conditionalFormatting sqref="A2:L8 A10:L22 B23:C40 A23">
+    <cfRule type="expression" dxfId="39" priority="61">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="52">
+    <cfRule type="expression" dxfId="38" priority="62">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="53">
+    <cfRule type="expression" dxfId="37" priority="63">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="36" priority="64">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="55">
+    <cfRule type="expression" dxfId="35" priority="65">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="32" priority="38">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="31" priority="39">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>$C9="02.課題"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:A40 D24:L40 D23 F23:L23">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>$B23="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$B23="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>OR($B23="08.クローズ", $B23="07.取消", $B23="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$C23="02.課題"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>AND(MOD(ROW(),2)=1,$A23&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$B23="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$B23="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>OR($B23="08.クローズ", $B23="07.取消", $B23="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$C23="02.課題"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
+      <formula>AND(MOD(ROW(),2)=1,$A23&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7124,13 +7537,13 @@
           <x14:formula1>
             <xm:f>アイテム!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C22</xm:sqref>
+          <xm:sqref>C2:C40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>アイテム!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B22</xm:sqref>
+          <xm:sqref>B2:B40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D0EFD0-02D9-4B70-AE69-30DD968DF47A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6ACEB0-67C6-4C27-9E88-74A35EE0E84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentManualCount="2"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2450,6 +2451,20 @@
     </rPh>
     <rPh sb="108" eb="109">
       <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正しいです。
+設計書を更新しました。</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6340,7 +6355,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7128,9 +7143,15 @@
       <c r="H23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="2"/>
+      <c r="I23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="2">
+        <v>43776</v>
+      </c>
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1">

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6ACEB0-67C6-4C27-9E88-74A35EE0E84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentManualCount="2"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tsis</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="134">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2468,11 +2466,27 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>受払区分 combox 下拉取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值问题，取的コード和名称分别来自于受払データ和コードマスタ，这两张表之间的relation如何确定。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -2480,7 +2494,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2494,7 +2508,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2530,7 +2544,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2559,13 +2573,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2580,7 +2594,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2594,7 +2608,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2882,20 +2896,240 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準 35" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準 37 2 2 2 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="3"/>
+    <cellStyle name="標準 2 3" xfId="4"/>
+    <cellStyle name="標準 2 4" xfId="7"/>
+    <cellStyle name="標準 3" xfId="5"/>
+    <cellStyle name="標準 3 2 2" xfId="9"/>
+    <cellStyle name="標準 35" xfId="6"/>
+    <cellStyle name="標準 37 2 2 2 2 3" xfId="11"/>
+    <cellStyle name="標準 37 2 2 3 3" xfId="10"/>
+    <cellStyle name="標準 4" xfId="8"/>
+    <cellStyle name="標準 5" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3330,7 +3564,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3374,7 +3608,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,7 +3652,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3696,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3533,7 +3767,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3577,7 +3811,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3855,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3665,7 +3899,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3731,7 +3965,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3797,7 +4031,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3863,7 +4097,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3929,7 +4163,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3973,7 +4207,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4017,7 +4251,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,7 +4295,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4404,7 +4638,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4493,7 +4727,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4537,7 +4771,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4581,7 +4815,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4665,7 +4899,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4754,7 +4988,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4798,7 +5032,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4842,7 +5076,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4891,7 +5125,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +5169,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4979,7 +5213,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5023,7 +5257,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5067,7 +5301,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5116,7 +5350,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5160,7 +5394,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5253,7 +5487,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5531,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5341,7 +5575,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5432,7 +5666,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5523,7 +5757,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5614,7 +5848,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5822,7 +6056,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5920,7 +6154,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5964,7 +6198,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6008,7 +6242,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6349,13 +6583,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7154,14 +7388,24 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="28.5">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43776</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -7393,159 +7637,193 @@
       <c r="L40" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L22"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="44" priority="71">
+    <cfRule type="expression" dxfId="69" priority="81">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="72">
+    <cfRule type="expression" dxfId="68" priority="82">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="73">
+    <cfRule type="expression" dxfId="67" priority="83">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="74">
+    <cfRule type="expression" dxfId="66" priority="84">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="75">
+    <cfRule type="expression" dxfId="65" priority="85">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L8 A10:L22 B23:C40 A23">
-    <cfRule type="expression" dxfId="39" priority="61">
+  <conditionalFormatting sqref="A2:L8 A10:L22 B23:C40 A23:A24">
+    <cfRule type="expression" dxfId="64" priority="71">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="62">
+    <cfRule type="expression" dxfId="63" priority="72">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="63">
+    <cfRule type="expression" dxfId="62" priority="73">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="64">
+    <cfRule type="expression" dxfId="61" priority="74">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="65">
+    <cfRule type="expression" dxfId="60" priority="75">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="59" priority="46">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="58" priority="47">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="38">
+    <cfRule type="expression" dxfId="57" priority="48">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="39">
+    <cfRule type="expression" dxfId="56" priority="49">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="40">
+    <cfRule type="expression" dxfId="55" priority="50">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="54" priority="41">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="53" priority="42">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="33">
+    <cfRule type="expression" dxfId="52" priority="43">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="51" priority="44">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="50" priority="45">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="49" priority="36">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="48" priority="37">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="47" priority="38">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="46" priority="39">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="45" priority="40">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="44" priority="26">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="43" priority="27">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="42" priority="28">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="41" priority="29">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="37" priority="23">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="36" priority="24">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="35" priority="25">
       <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A40 D24:L40 D23 F23:L23">
-    <cfRule type="expression" dxfId="9" priority="6">
+  <conditionalFormatting sqref="A25:A40 D25:L40 D23 F23:L24">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>$B23="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>$B23="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="32" priority="18">
       <formula>OR($B23="08.クローズ", $B23="07.取消", $B23="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="31" priority="19">
       <formula>$C23="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>AND(MOD(ROW(),2)=1,$A23&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>$B23="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>$B23="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>OR($B23="08.クローズ", $B23="07.取消", $B23="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="26" priority="14">
       <formula>$C23="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>AND(MOD(ROW(),2)=1,$A23&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="19" priority="6">
+      <formula>$B24="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="7">
+      <formula>$B24="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="8">
+      <formula>OR($B24="08.クローズ", $B24="07.取消", $B24="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="9">
+      <formula>$C24="02.課題"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>AND(MOD(ROW(),2)=1,$A24&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$B24="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$B24="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>OR($B24="08.クローズ", $B24="07.取消", $B24="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$C24="02.課題"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND(MOD(ROW(),2)=1,$A24&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7554,13 +7832,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>アイテム!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>アイテム!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -7573,7 +7851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7610,7 +7888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7729,7 +8007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7822,7 +8100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7867,7 +8145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8099,7 +8377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8136,7 +8414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -8163,7 +8441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8193,7 +8471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
@@ -8245,7 +8523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8275,7 +8553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B7189B-BA9B-46EF-8A18-46687CB2ED50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -38,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tsis</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2482,11 +2483,26 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>設計書を更新しました。
+データ参照：
+1:物交
+3:開発
+4:滅却
+5:その他
+8:在庫移動
+9:在庫返却
+A:出荷返却</t>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -2494,7 +2510,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2508,7 +2524,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2544,7 +2560,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2573,13 +2589,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2594,7 +2610,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2608,7 +2624,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2896,152 +2912,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="3"/>
-    <cellStyle name="標準 2 3" xfId="4"/>
-    <cellStyle name="標準 2 4" xfId="7"/>
-    <cellStyle name="標準 3" xfId="5"/>
-    <cellStyle name="標準 3 2 2" xfId="9"/>
-    <cellStyle name="標準 35" xfId="6"/>
-    <cellStyle name="標準 37 2 2 2 2 3" xfId="11"/>
-    <cellStyle name="標準 37 2 2 3 3" xfId="10"/>
-    <cellStyle name="標準 4" xfId="8"/>
-    <cellStyle name="標準 5" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 35" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 37 2 2 2 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill>
@@ -3564,7 +3448,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3608,7 +3492,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,7 +3536,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3696,7 +3580,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3651,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3811,7 +3695,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,7 +3739,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,7 +3783,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3965,7 +3849,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4031,7 +3915,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4097,7 +3981,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4163,7 +4047,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4207,7 +4091,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4251,7 +4135,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4295,7 +4179,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,7 +4522,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4727,7 +4611,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4771,7 +4655,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4815,7 +4699,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4899,7 +4783,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4988,7 +4872,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5032,7 +4916,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5076,7 +4960,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5125,7 +5009,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5169,7 +5053,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5213,7 +5097,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5257,7 +5141,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5301,7 +5185,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5350,7 +5234,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5278,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5487,7 +5371,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5531,7 +5415,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5575,7 +5459,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +5550,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5757,7 +5641,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5848,7 +5732,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6056,7 +5940,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6154,7 +6038,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6198,7 +6082,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6242,7 +6126,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6583,13 +6467,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7388,7 +7272,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="28.5">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="128.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -7407,9 +7291,15 @@
         <v>133</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="2"/>
+      <c r="I24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="2">
+        <v>43776</v>
+      </c>
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1">
@@ -7637,192 +7527,192 @@
       <c r="L40" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L22"/>
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="69" priority="81">
+    <cfRule type="expression" dxfId="54" priority="81">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="82">
+    <cfRule type="expression" dxfId="53" priority="82">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="83">
+    <cfRule type="expression" dxfId="52" priority="83">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="84">
+    <cfRule type="expression" dxfId="51" priority="84">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="85">
+    <cfRule type="expression" dxfId="50" priority="85">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L8 A10:L22 B23:C40 A23:A24">
-    <cfRule type="expression" dxfId="64" priority="71">
+    <cfRule type="expression" dxfId="49" priority="71">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="72">
+    <cfRule type="expression" dxfId="48" priority="72">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="73">
+    <cfRule type="expression" dxfId="47" priority="73">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="74">
+    <cfRule type="expression" dxfId="46" priority="74">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="75">
+    <cfRule type="expression" dxfId="45" priority="75">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="59" priority="46">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="47">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="48">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="49">
+    <cfRule type="expression" dxfId="41" priority="49">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="50">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="54" priority="41">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="43">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="44">
+    <cfRule type="expression" dxfId="36" priority="44">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="45">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="49" priority="36">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$B8="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="38">
+    <cfRule type="expression" dxfId="32" priority="38">
       <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="39">
+    <cfRule type="expression" dxfId="31" priority="39">
       <formula>$C8="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="40">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="44" priority="26">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="27">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="29">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="39" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A40 D25:L40 D23 F23:L24">
-    <cfRule type="expression" dxfId="34" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>$B23="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$B23="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>OR($B23="08.クローズ", $B23="07.取消", $B23="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$C23="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="20">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>AND(MOD(ROW(),2)=1,$A23&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>$B23="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>$B23="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>OR($B23="08.クローズ", $B23="07.取消", $B23="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>$C23="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>AND(MOD(ROW(),2)=1,$A23&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$B24="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$B24="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>OR($B24="08.クローズ", $B24="07.取消", $B24="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$C24="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>AND(MOD(ROW(),2)=1,$A24&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$B24="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$B24="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR($B24="08.クローズ", $B24="07.取消", $B24="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C24="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND(MOD(ROW(),2)=1,$A24&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7832,13 +7722,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>アイテム!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>アイテム!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -7851,7 +7741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7888,7 +7778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8007,7 +7897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8100,7 +7990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8145,7 +8035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8377,7 +8267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8414,7 +8304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -8441,7 +8331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8471,7 +8361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
@@ -8523,7 +8413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8553,7 +8443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B7189B-BA9B-46EF-8A18-46687CB2ED50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C28E11-091A-46B1-9286-A4ECFD7EB990}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34965" yWindow="660" windowWidth="19590" windowHeight="13290" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2495,6 +2503,75 @@
 A:出荷返却</t>
     <rPh sb="15" eb="17">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">①「５．メッセージ仕様」シートにメッセージID(W0007)を記載されています。
+W0007はMessage.xmlファイルに存在しないので、W0001ですか？
+②ファイル名チェックのメッセージIDは記載されていません。
+③項目が選択されていない場合、昇順、降順ボタンが押した状態は記載されていません。
+　　ボタン非活性またはメッセージ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>④エクセル出力について、結合列がありますが、どうやって出力しますか？
+仕様書に出力テンプレートがあればもっといいです。</t>
+    </r>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t>ヒカッセイ</t>
+    </rPh>
+    <rPh sb="207" eb="210">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2925,7 +3002,51 @@
     <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6472,8 +6593,8 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7055,7 +7176,9 @@
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>111</v>
       </c>
@@ -7087,7 +7210,9 @@
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>111</v>
       </c>
@@ -7119,7 +7244,9 @@
       <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>111</v>
       </c>
@@ -7151,7 +7278,9 @@
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>115</v>
       </c>
@@ -7183,7 +7312,9 @@
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>122</v>
       </c>
@@ -7215,7 +7346,9 @@
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>115</v>
       </c>
@@ -7247,7 +7380,9 @@
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>111</v>
       </c>
@@ -7279,7 +7414,9 @@
       <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>115</v>
       </c>
@@ -7302,15 +7439,29 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="144.75">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43777</v>
+      </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="2"/>
@@ -7530,57 +7681,74 @@
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
-    <cfRule type="expression" dxfId="54" priority="81">
+    <cfRule type="expression" dxfId="59" priority="86">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="82">
+    <cfRule type="expression" dxfId="58" priority="87">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="83">
+    <cfRule type="expression" dxfId="57" priority="88">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="84">
+    <cfRule type="expression" dxfId="56" priority="89">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="85">
+    <cfRule type="expression" dxfId="55" priority="90">
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L8 A10:L22 B23:C40 A23:A24">
-    <cfRule type="expression" dxfId="49" priority="71">
+  <conditionalFormatting sqref="A2:L8 A10:L16 B25:C40 A23:A25 B23:B24 A17:B22 D17:L22">
+    <cfRule type="expression" dxfId="54" priority="76">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="72">
+    <cfRule type="expression" dxfId="53" priority="77">
       <formula>$B2="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="73">
+    <cfRule type="expression" dxfId="52" priority="78">
       <formula>OR($B2="08.クローズ", $B2="07.取消", $B2="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="74">
+    <cfRule type="expression" dxfId="51" priority="79">
       <formula>$C2="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="75">
+    <cfRule type="expression" dxfId="50" priority="80">
       <formula>AND(MOD(ROW(),2)=1,$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$B7="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>$B7="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="47" priority="53">
       <formula>OR($B7="08.クローズ", $B7="07.取消", $B7="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="49">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>$C7="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="50">
+    <cfRule type="expression" dxfId="45" priority="55">
       <formula>AND(MOD(ROW(),2)=1,$A7&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$B8="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="47">
+      <formula>$B8="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="48">
+      <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="49">
+      <formula>$C8="02.課題"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="50">
+      <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="expression" dxfId="39" priority="41">
       <formula>$B8="05.回答済"</formula>
     </cfRule>
@@ -7597,21 +7765,21 @@
       <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$B8="05.回答済"</formula>
+  <conditionalFormatting sqref="A9:L9">
+    <cfRule type="expression" dxfId="34" priority="31">
+      <formula>$B9="05.回答済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$B8="09.完了"</formula>
+    <cfRule type="expression" dxfId="33" priority="32">
+      <formula>$B9="09.完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="38">
-      <formula>OR($B8="08.クローズ", $B8="07.取消", $B8="06.却下")</formula>
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="39">
-      <formula>$C8="02.課題"</formula>
+    <cfRule type="expression" dxfId="31" priority="34">
+      <formula>$C9="02.課題"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="40">
-      <formula>AND(MOD(ROW(),2)=1,$A8&gt;"")</formula>
+    <cfRule type="expression" dxfId="30" priority="35">
+      <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
@@ -7628,27 +7796,27 @@
       <formula>$C9="02.課題"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="30">
-      <formula>AND(MOD(ROW(),2)=1,$A9&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="24" priority="21">
-      <formula>$B9="05.回答済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
-      <formula>$B9="09.完了"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>OR($B9="08.クローズ", $B9="07.取消", $B9="06.却下")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
-      <formula>$C9="02.課題"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
       <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A40 D25:L40 D23 F23:L24">
+  <conditionalFormatting sqref="A26:A40 D25:L40 D23 F23:L24">
+    <cfRule type="expression" dxfId="24" priority="21">
+      <formula>$B23="05.回答済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>$B23="09.完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>OR($B23="08.クローズ", $B23="07.取消", $B23="06.却下")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>$C23="02.課題"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>AND(MOD(ROW(),2)=1,$A23&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="19" priority="16">
       <formula>$B23="05.回答済"</formula>
     </cfRule>
@@ -7665,24 +7833,24 @@
       <formula>AND(MOD(ROW(),2)=1,$A23&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="14" priority="11">
-      <formula>$B23="05.回答済"</formula>
+      <formula>$B24="05.回答済"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="12">
-      <formula>$B23="09.完了"</formula>
+      <formula>$B24="09.完了"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>OR($B23="08.クローズ", $B23="07.取消", $B23="06.却下")</formula>
+      <formula>OR($B24="08.クローズ", $B24="07.取消", $B24="06.却下")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="14">
-      <formula>$C23="02.課題"</formula>
+      <formula>$C24="02.課題"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="15">
-      <formula>AND(MOD(ROW(),2)=1,$A23&lt;&gt;"")</formula>
+      <formula>AND(MOD(ROW(),2)=1,$A24&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="E24">
     <cfRule type="expression" dxfId="9" priority="6">
       <formula>$B24="05.回答済"</formula>
     </cfRule>
@@ -7699,21 +7867,21 @@
       <formula>AND(MOD(ROW(),2)=1,$A24&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="C17:C24">
     <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$B24="05.回答済"</formula>
+      <formula>$B17="05.回答済"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$B24="09.完了"</formula>
+      <formula>$B17="09.完了"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>OR($B24="08.クローズ", $B24="07.取消", $B24="06.却下")</formula>
+      <formula>OR($B17="08.クローズ", $B17="07.取消", $B17="06.却下")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$C24="02.課題"</formula>
+      <formula>$C17="02.課題"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(MOD(ROW(),2)=1,$A24&lt;&gt;"")</formula>
+      <formula>AND(MOD(ROW(),2)=1,$A17&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C28E11-091A-46B1-9286-A4ECFD7EB990}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80633F10-5848-4EF4-BD4B-797705DD5727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34965" yWindow="660" windowWidth="19590" windowHeight="13290" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30315" yWindow="345" windowWidth="23400" windowHeight="15165" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -2512,7 +2512,8 @@
 W0007はMessage.xmlファイルに存在しないので、W0001ですか？
 ②ファイル名チェックのメッセージIDは記載されていません。
 ③項目が選択されていない場合、昇順、降順ボタンが押した状態は記載されていません。
-　　ボタン非活性またはメッセージ
+　　・ボタン非活性またはメッセージ
+　　・選択可能項目数
 </t>
     </r>
     <r>
@@ -2564,13 +2565,13 @@
     <rPh sb="143" eb="145">
       <t>キサイ</t>
     </rPh>
-    <rPh sb="159" eb="162">
+    <rPh sb="160" eb="163">
       <t>ヒカッセイ</t>
     </rPh>
-    <rPh sb="207" eb="210">
+    <rPh sb="219" eb="222">
       <t>シヨウショ</t>
     </rPh>
-    <rPh sb="211" eb="213">
+    <rPh sb="223" eb="225">
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -6594,7 +6595,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7439,7 +7440,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="144.75">
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="159">
       <c r="A25" s="4">
         <v>24</v>
       </c>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80633F10-5848-4EF4-BD4B-797705DD5727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2846428-54F5-4316-AE0D-5AAEA99E8FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="345" windowWidth="23400" windowHeight="15165" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -103,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="137">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2573,6 +2571,84 @@
     </rPh>
     <rPh sb="223" eb="225">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①Message.xmlにW0007をご追加ください。
+②Message.xmlにW000X系で採番して実装してください。
+③活性です。メッセージはいらない。検索結果が０件の場合、ボタンをクリックしても反応なし。
+複数項目選択できます。項目数要求なし
+④画面の一覧と同じようにタイトルを結合して出力する。
+画面レイアウトをご参照ください。</t>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6595,7 +6671,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7463,9 +7539,15 @@
       <c r="H25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="2"/>
+      <c r="I25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="2">
+        <v>43777</v>
+      </c>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1">

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2846428-54F5-4316-AE0D-5AAEA99E8FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42FF531-870A-4389-B348-9D3E8DDD8F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2580,7 +2580,9 @@
 ③活性です。メッセージはいらない。検索結果が０件の場合、ボタンをクリックしても反応なし。
 複数項目選択できます。項目数要求なし
 ④画面の一覧と同じようにタイトルを結合して出力する。
-画面レイアウトをご参照ください。</t>
+画面レイアウトをご参照ください。
+※タイトルは日本語だけ出力する。
+※セル結合以外な書式がいらない。</t>
     <rPh sb="20" eb="22">
       <t>ツイカ</t>
     </rPh>
@@ -2649,6 +2651,21 @@
     </rPh>
     <rPh sb="162" eb="164">
       <t>サンショウ</t>
+    </rPh>
+    <rPh sb="176" eb="179">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ショシキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42FF531-870A-4389-B348-9D3E8DDD8F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEDE7C0-CC95-4A94-8FE0-BEE777E4E37E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,13 +23,14 @@
     <sheet name="13" sheetId="28" r:id="rId8"/>
     <sheet name="14" sheetId="29" r:id="rId9"/>
     <sheet name="19" sheetId="30" r:id="rId10"/>
-    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId11"/>
-    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId12"/>
+    <sheet name="25" sheetId="31" r:id="rId11"/>
+    <sheet name="設計書の読み方" sheetId="13" state="hidden" r:id="rId12"/>
+    <sheet name="アイテム" sheetId="2" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$28</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -101,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="141">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2666,6 +2669,83 @@
     </rPh>
     <rPh sb="195" eb="197">
       <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SC-K16_成形実績参照画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「３．項目一覧」シートの検索条件について、品種と品名の備考欄は下記内容を記載されています。
+・品種：生産品名マスタ.大工程コード='20'(成形仕上)
+　　　　　　変更すると、品名再作成
+・品名：生産製品マスタ.品種コード=画面.品種コード
+上記内容の意味が分からない、教えてください。
+「25」シートを参照してください。</t>
+    <rPh sb="12" eb="16">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ビコウラン</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>カキナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「５．メッセージ仕様」の日付チェックについて、必要ですか？
+日付範囲はコードでコントロールできます。日付チェックはいらないと思います。</t>
+    <rPh sb="62" eb="63">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「４．イベント仕様」シートについて、その他払出の検索条件は「受払年月日　BETWEEN 画面.実績日(始点) AND 画面.実績日(終点)」と記載されています。
+上記条件は範囲検索を選択の場合、過去検索の場合は記載されていません。</t>
+    <rPh sb="24" eb="28">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3838,6 +3918,139 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>197943</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F6A32F-0E8B-4AC6-ABD0-108F4AAAD3D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="16657143" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1FEC98-9B3A-42DE-8446-51FA1D24F11E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12182475" y="657225"/>
+          <a:ext cx="4981575" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" numCol="1" rtlCol="0" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="968375" rtl="0" eaLnBrk="0" fontAlgn="base" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6683,12 +6896,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6745,7 +6958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="42.75">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="42.75" hidden="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6781,7 +6994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="173.25" customHeight="1">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="173.25" hidden="1" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6853,7 +7066,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="42.75">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="42.75" hidden="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6889,7 +7102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="69">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="69" hidden="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6925,12 +7138,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1">
+    <row r="7" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
@@ -6959,7 +7172,7 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="99">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="99" hidden="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7027,7 +7240,7 @@
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="42.75">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="42.75" hidden="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -7061,7 +7274,7 @@
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="26.25">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="26.25" hidden="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7095,7 +7308,7 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="28.5">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="28.5" hidden="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -7129,7 +7342,7 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="57">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="57" hidden="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -7163,7 +7376,7 @@
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="28.5">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="28.5" hidden="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -7197,12 +7410,12 @@
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1">
+    <row r="15" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>21</v>
@@ -7229,12 +7442,12 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="185.25">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="185.25" hidden="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>21</v>
@@ -7297,12 +7510,12 @@
       </c>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="85.5">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="85.5" hidden="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>21</v>
@@ -7331,12 +7544,12 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="116.25">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="116.25" hidden="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -7365,12 +7578,12 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="45">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="45" hidden="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>21</v>
@@ -7399,12 +7612,12 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="71.25">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="71.25" hidden="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>21</v>
@@ -7433,12 +7646,12 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="28.5">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="28.5" hidden="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>21</v>
@@ -7467,12 +7680,12 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="99.75">
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="99.75" hidden="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>21</v>
@@ -7501,12 +7714,12 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="128.25">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="128.25" hidden="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>21</v>
@@ -7533,12 +7746,12 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="159">
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="159" hidden="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>21</v>
@@ -7567,43 +7780,85 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="99.75">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43782</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="2"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" s="1" customFormat="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="2"/>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="28.5">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43782</v>
+      </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="2"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" s="1" customFormat="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="2"/>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="42.75">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43782</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="2"/>
@@ -7778,7 +8033,15 @@
       <c r="L40" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L28" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="01.起票"/>
+        <filter val="02.確認中"/>
+        <filter val="05.回答済"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
     <cfRule type="expression" dxfId="59" priority="86">
@@ -7797,7 +8060,7 @@
       <formula>AND(MOD(ROW(),2)=1,$A2&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L8 A10:L16 B25:C40 A23:A25 B23:B24 A17:B22 D17:L22">
+  <conditionalFormatting sqref="A2:L8 A10:L16 B25:C40 B23:B24 A17:B22 D17:L22 A23:A28">
     <cfRule type="expression" dxfId="54" priority="76">
       <formula>$B2="05.回答済"</formula>
     </cfRule>
@@ -7899,7 +8162,7 @@
       <formula>AND(MOD(ROW(),2)=1,$A9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A40 D25:L40 D23 F23:L24">
+  <conditionalFormatting sqref="A29:A40 D23 F23:L24 D25:L40">
     <cfRule type="expression" dxfId="24" priority="21">
       <formula>$B23="05.回答済"</formula>
     </cfRule>
@@ -8046,6 +8309,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8523C733-89A8-4433-9C01-9CFF21689358}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:D23"/>
   <sheetViews>
@@ -8164,7 +8443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEDE7C0-CC95-4A94-8FE0-BEE777E4E37E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91D2F6-4101-4A01-9F7C-B407339DCBB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="143">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2746,6 +2746,80 @@
     </rPh>
     <rPh sb="105" eb="107">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①仕様変更があります：大工程コード='10'(成形)
+②画面のコンボボックス作成は工程→品種→品名という順です。
+例：選択した品種により、品名コンボボックスを作成する。品種と品名の関連は生産品名マスタ　left join 生産製品マスタ,生産製品マスタ.品種コード=画面.品種コード。
+工程と品種の関連：品種マスタ left join 生産製品マスタ left join 生産品名マスタ</t>
+    <rPh sb="1" eb="5">
+      <t>シヨウヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒンシュ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒンシュ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒンシュ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実装方法に関わらず、チェックは保留する必要があります。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホリュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6899,9 +6973,9 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7803,7 +7877,9 @@
       <c r="H26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="2"/>
       <c r="L26" s="7"/>
@@ -7831,7 +7907,9 @@
       <c r="H27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="2"/>
       <c r="L27" s="7"/>
@@ -7859,7 +7937,9 @@
       <c r="H28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="2"/>
       <c r="L28" s="7"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91D2F6-4101-4A01-9F7C-B407339DCBB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A5F7E-30CC-47B0-9AF8-74CAA6AA93A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="143">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -6973,9 +6973,9 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7880,8 +7880,12 @@
       <c r="I26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="2"/>
+      <c r="J26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="2">
+        <v>43783</v>
+      </c>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="28.5">
@@ -7910,8 +7914,12 @@
       <c r="I27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="2"/>
+      <c r="J27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="2">
+        <v>43783</v>
+      </c>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="42.75">
@@ -7940,8 +7948,12 @@
       <c r="I28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="2">
+        <v>43783</v>
+      </c>
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1">

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A5F7E-30CC-47B0-9AF8-74CAA6AA93A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="686"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$28</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,12 +47,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tsis</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2823,11 +2822,48 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>SC-K21その他出庫参照取消</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一下 受払データにデータを追加する中画面選択行.振替区分的取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -2835,7 +2871,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2849,7 +2885,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2885,7 +2921,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2914,13 +2950,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2935,7 +2971,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2949,7 +2985,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3237,18 +3273,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準 35" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準 37 2 2 2 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="3"/>
+    <cellStyle name="標準 2 3" xfId="4"/>
+    <cellStyle name="標準 2 4" xfId="7"/>
+    <cellStyle name="標準 3" xfId="5"/>
+    <cellStyle name="標準 3 2 2" xfId="9"/>
+    <cellStyle name="標準 35" xfId="6"/>
+    <cellStyle name="標準 37 2 2 2 2 3" xfId="11"/>
+    <cellStyle name="標準 37 2 2 3 3" xfId="10"/>
+    <cellStyle name="標準 4" xfId="8"/>
+    <cellStyle name="標準 5" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="60">
     <dxf>
@@ -3817,7 +3853,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3861,7 +3897,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3905,7 +3941,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3949,7 +3985,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4020,7 +4056,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F6A32F-0E8B-4AC6-ABD0-108F4AAAD3D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4F6A32F-0E8B-4AC6-ABD0-108F4AAAD3D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4064,7 +4100,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1FEC98-9B3A-42DE-8446-51FA1D24F11E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D1FEC98-9B3A-42DE-8446-51FA1D24F11E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,7 +4189,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4197,7 +4233,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4241,7 +4277,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4285,7 +4321,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4351,7 +4387,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4417,7 +4453,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4483,7 +4519,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4549,7 +4585,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4593,7 +4629,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4637,7 +4673,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4681,7 +4717,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5024,7 +5060,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5113,7 +5149,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5157,7 +5193,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5201,7 +5237,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5285,7 +5321,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5374,7 +5410,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5418,7 +5454,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5462,7 +5498,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5511,7 +5547,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5555,7 +5591,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5599,7 +5635,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5643,7 +5679,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5687,7 +5723,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5736,7 +5772,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5780,7 +5816,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5873,7 +5909,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5917,7 +5953,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5961,7 +5997,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6052,7 +6088,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6143,7 +6179,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6234,7 +6270,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6442,7 +6478,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6540,7 +6576,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6584,7 +6620,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6628,7 +6664,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6969,13 +7005,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7032,7 +7068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="42.75" hidden="1">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="42.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -7068,7 +7104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="173.25" hidden="1" customHeight="1">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="173.25" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -7140,7 +7176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="42.75" hidden="1">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="42.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -7176,7 +7212,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="69" hidden="1">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="69">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -7212,7 +7248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" hidden="1">
+    <row r="7" spans="1:12" s="1" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7246,7 +7282,7 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="99" hidden="1">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="99">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7314,7 +7350,7 @@
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="42.75" hidden="1">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="42.75">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -7348,7 +7384,7 @@
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="26.25" hidden="1">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7382,7 +7418,7 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="28.5" hidden="1">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="28.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -7416,7 +7452,7 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="57" hidden="1">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="57">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -7450,7 +7486,7 @@
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="28.5" hidden="1">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="28.5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -7484,7 +7520,7 @@
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" hidden="1">
+    <row r="15" spans="1:12" s="1" customFormat="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -7516,7 +7552,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="185.25" hidden="1">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="185.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -7584,7 +7620,7 @@
       </c>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="85.5" hidden="1">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="85.5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -7618,7 +7654,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="116.25" hidden="1">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="116.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -7652,7 +7688,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="45" hidden="1">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -7686,7 +7722,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="71.25" hidden="1">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="71.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -7720,7 +7756,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="28.5" hidden="1">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="28.5">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -7754,7 +7790,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="99.75" hidden="1">
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="99.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -7788,7 +7824,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="128.25" hidden="1">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="128.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -7820,7 +7856,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="159" hidden="1">
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="159">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -7957,14 +7993,28 @@
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43788</v>
+      </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="2"/>
@@ -8125,15 +8175,7 @@
       <c r="L40" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L28" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="01.起票"/>
-        <filter val="02.確認中"/>
-        <filter val="05.回答済"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L28"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
     <cfRule type="expression" dxfId="59" priority="86">
@@ -8345,13 +8387,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>アイテム!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>アイテム!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -8364,7 +8406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8401,7 +8443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8523C733-89A8-4433-9C01-9CFF21689358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8417,7 +8459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8536,7 +8578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8629,7 +8671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8674,7 +8716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8906,7 +8948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8943,7 +8985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -8970,7 +9012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9000,7 +9042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
@@ -9052,7 +9094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9082,7 +9124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/上海/【BackDoor】_QA表.xlsx
+++ b/上海/【BackDoor】_QA表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\上海\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B8B594-19B3-4230-9950-BB4A99F944F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="686"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QA!$A$1:$L$28</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tsis</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2863,7 +2864,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -2871,7 +2872,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2885,7 +2886,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2921,7 +2922,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2950,13 +2951,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2971,7 +2972,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2985,7 +2986,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3273,18 +3274,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="3"/>
-    <cellStyle name="標準 2 3" xfId="4"/>
-    <cellStyle name="標準 2 4" xfId="7"/>
-    <cellStyle name="標準 3" xfId="5"/>
-    <cellStyle name="標準 3 2 2" xfId="9"/>
-    <cellStyle name="標準 35" xfId="6"/>
-    <cellStyle name="標準 37 2 2 2 2 3" xfId="11"/>
-    <cellStyle name="標準 37 2 2 3 3" xfId="10"/>
-    <cellStyle name="標準 4" xfId="8"/>
-    <cellStyle name="標準 5" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 35" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 37 2 2 2 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 37 2 2 3 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="60">
     <dxf>
@@ -3853,7 +3854,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC337A80-88CA-46B8-A7BF-9D89E4707261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3897,7 +3898,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A13A1B7-BAE0-4535-ACEB-405C93BB6F26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +3942,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C8FCC2-E749-4033-A2A8-C8131B42FE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3985,7 +3986,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBB01A-24B1-4024-B915-6B91E013CD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +4057,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4F6A32F-0E8B-4AC6-ABD0-108F4AAAD3D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F6A32F-0E8B-4AC6-ABD0-108F4AAAD3D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4100,7 +4101,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D1FEC98-9B3A-42DE-8446-51FA1D24F11E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1FEC98-9B3A-42DE-8446-51FA1D24F11E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,7 +4190,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EBB1BD-43BF-4A6A-B80F-D7FD97D33C5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4233,7 +4234,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5588188B-100B-43A1-8408-C251C85FDDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4277,7 +4278,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B859C52-4857-4AA4-816C-DCC4195F488F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4321,7 +4322,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0422741C-5CDD-4C73-A6E6-F4BAE489922A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4387,7 +4388,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2085191-39B7-4C41-976B-9589D7089E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4453,7 +4454,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000F3986-C706-45C8-955D-EDD25C577861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4519,7 +4520,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745B3C-02D1-4F32-8437-85CDFED5D746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4586,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E2D74B-BCB5-4F87-A538-BAED7F491F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4629,7 +4630,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54F17B6-4991-4C99-9C30-75636EABEE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4673,7 +4674,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A16487C-876F-4B7E-AD44-C189813C2E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4717,7 +4718,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8029E0E8-627A-4177-9EEB-8D99289C2F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5060,7 +5061,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125E7E3-739C-477B-A21C-FB0AD4F3D9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5149,7 +5150,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9DAED8-4BEC-4FF9-A2C5-B4513B3D0DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5193,7 +5194,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0108F-207E-4EAB-B7DB-345B7B75FBE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5237,7 +5238,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0E60E-7F20-4D90-B008-E306C4997D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5321,7 +5322,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0A8A41-30E7-4171-9C6B-C65623042C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5411,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D158A05-AEFD-4239-B6CC-49A652C9E200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5454,7 +5455,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACCCD9-D5A6-4FA4-8C56-4433C41706F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5498,7 +5499,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D70C9D6-BA50-4036-A9B2-CF411CE0F5BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5547,7 +5548,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF535E-F923-4EAF-A0A3-D389EAC8A0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5591,7 +5592,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3AEE5-406F-41BD-A714-FA9D0971B72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5635,7 +5636,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EED95B-0046-47EE-BC5A-84D041780214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5680,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B0ABE9-B8B2-4C9C-B78F-6718BB45C273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5723,7 +5724,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFE3E-A367-4BF2-A3B9-B1CB48F267A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5772,7 +5773,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E3097-9AB3-4AD0-978E-E2D45F6B5082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5816,7 +5817,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BFBF01-CE7D-4AED-A506-2D8B458798EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5909,7 +5910,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A3C56-8874-4244-8359-F62F66AF2982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5953,7 +5954,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135089FD-4D35-4F39-95BB-CEDE8F105ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5997,7 +5998,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340F171F-CB64-4F8D-ADFD-A8EBAB703798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6088,7 +6089,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417F4F3-1552-49F9-9697-B58EEFC1446E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6179,7 +6180,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284DA56-2852-498D-97C9-D134D94330A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6270,7 +6271,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8329D599-841B-4F8A-921F-81A21E166A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6478,7 +6479,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A757-76F7-41F5-905C-BFDA4C3752B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6576,7 +6577,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6620,7 +6621,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6664,7 +6665,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7005,13 +7006,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -8015,7 +8016,9 @@
       <c r="H29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="2"/>
       <c r="L29" s="7"/>
@@ -8175,7 +8178,7 @@
       <c r="L40" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L28"/>
+  <autoFilter ref="A1:L28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:L6">
     <cfRule type="expression" dxfId="59" priority="86">
@@ -8387,13 +8390,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>アイテム!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>アイテム!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -8406,7 +8409,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8443,7 +8447,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8459,7 +8464,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8578,7 +8584,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8671,7 +8678,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8716,7 +8724,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8948,7 +8957,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8985,7 +8995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A3:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -9012,7 +9023,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9042,7 +9054,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
@@ -9094,7 +9107,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9124,7 +9138,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
